--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_OPA_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_OPA_AR2_50_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>2.499999999999986</v>
       </c>
-      <c r="BA2">
-        <v>2.499999999999986</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,17 +845,11 @@
       <c r="AZ3">
         <v>1</v>
       </c>
-      <c r="BA3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
-      <c r="B4">
-        <v>0.4000000000000057</v>
-      </c>
       <c r="C4">
         <v>-0.2000000000000028</v>
       </c>
@@ -1012,17 +1000,11 @@
       <c r="AZ4">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="BA4">
-        <v>-0.2000000000000028</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
-      <c r="B5">
-        <v>0.4000000000000057</v>
-      </c>
       <c r="C5">
         <v>0.2999999999999829</v>
       </c>
@@ -1173,20 +1155,11 @@
       <c r="AZ5">
         <v>0.2999999999999829</v>
       </c>
-      <c r="BA5">
-        <v>0.2999999999999829</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
-      <c r="B6">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="C6">
-        <v>0.7999999999999972</v>
-      </c>
       <c r="D6">
         <v>0.2000000000000028</v>
       </c>
@@ -1334,17 +1307,11 @@
       <c r="AZ6">
         <v>0.2000000000000028</v>
       </c>
-      <c r="BA6">
-        <v>0.2000000000000028</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
-      <c r="C7">
-        <v>0.7999999999999972</v>
-      </c>
       <c r="D7">
         <v>0</v>
       </c>
@@ -1492,20 +1459,11 @@
       <c r="AZ7">
         <v>0</v>
       </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
-      <c r="C8">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="D8">
-        <v>0.09999999999999432</v>
-      </c>
       <c r="E8">
         <v>-0.7999999999999972</v>
       </c>
@@ -1650,20 +1608,11 @@
       <c r="AZ8">
         <v>-0.7999999999999972</v>
       </c>
-      <c r="BA8">
-        <v>-0.7999999999999972</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
-      <c r="C9">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="D9">
-        <v>0.09999999999999432</v>
-      </c>
       <c r="E9">
         <v>0</v>
       </c>
@@ -1808,23 +1757,11 @@
       <c r="AZ9">
         <v>0</v>
       </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
-      <c r="C10">
-        <v>-0.1999999999999886</v>
-      </c>
-      <c r="D10">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="E10">
-        <v>0.09999999999999432</v>
-      </c>
       <c r="F10">
         <v>0.2999999999999829</v>
       </c>
@@ -1966,23 +1903,11 @@
       <c r="AZ10">
         <v>0.2999999999999829</v>
       </c>
-      <c r="BA10">
-        <v>0.2999999999999829</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
-      <c r="C11">
-        <v>0.3035956206679316</v>
-      </c>
-      <c r="D11">
-        <v>0.1126241880015242</v>
-      </c>
-      <c r="E11">
-        <v>0.2999999999999829</v>
-      </c>
       <c r="F11">
         <v>0.4000000000000057</v>
       </c>
@@ -2124,26 +2049,11 @@
       <c r="AZ11">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA11">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
-      <c r="C12">
-        <v>0.563806303394657</v>
-      </c>
-      <c r="D12">
-        <v>0.1405929808701309</v>
-      </c>
-      <c r="E12">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="F12">
-        <v>0.6999999999999886</v>
-      </c>
       <c r="G12">
         <v>0.5999999999999943</v>
       </c>
@@ -2282,26 +2192,11 @@
       <c r="AZ12">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA12">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
-      <c r="C13">
-        <v>0.4644831178533377</v>
-      </c>
-      <c r="D13">
-        <v>0.1325816912526561</v>
-      </c>
-      <c r="E13">
-        <v>0.4999999999999858</v>
-      </c>
-      <c r="F13">
-        <v>1.200000000000003</v>
-      </c>
       <c r="G13">
         <v>1.200000000000003</v>
       </c>
@@ -2440,29 +2335,11 @@
       <c r="AZ13">
         <v>1.200000000000003</v>
       </c>
-      <c r="BA13">
-        <v>1.200000000000003</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="C14">
-        <v>0.3418014506137819</v>
-      </c>
-      <c r="D14">
-        <v>0.1348264069399603</v>
-      </c>
-      <c r="E14">
-        <v>0.6999999999999886</v>
-      </c>
-      <c r="F14">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="G14">
-        <v>2.299999999999997</v>
-      </c>
       <c r="H14">
         <v>2</v>
       </c>
@@ -2598,29 +2475,11 @@
       <c r="AZ14">
         <v>2</v>
       </c>
-      <c r="BA14">
-        <v>2</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="C15">
-        <v>0.3396076206086667</v>
-      </c>
-      <c r="D15">
-        <v>0.1342004198976779</v>
-      </c>
-      <c r="E15">
-        <v>0.2639659864006857</v>
-      </c>
-      <c r="F15">
-        <v>0.720635990154047</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
         <v>0.7999999999999972</v>
       </c>
@@ -2756,32 +2615,11 @@
       <c r="AZ15">
         <v>0.7999999999999972</v>
       </c>
-      <c r="BA15">
-        <v>0.7999999999999972</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="C16">
-        <v>0.3824843333709734</v>
-      </c>
-      <c r="D16">
-        <v>0.1343748096139038</v>
-      </c>
-      <c r="E16">
-        <v>0.1089907510061066</v>
-      </c>
-      <c r="F16">
-        <v>0.3779822241366543</v>
-      </c>
-      <c r="G16">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
       <c r="I16">
         <v>1.599999999999994</v>
       </c>
@@ -2914,32 +2752,11 @@
       <c r="AZ16">
         <v>1.599999999999994</v>
       </c>
-      <c r="BA16">
-        <v>1.599999999999994</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>0.3963513147216646</v>
-      </c>
-      <c r="D17">
-        <v>0.1343262384873468</v>
-      </c>
-      <c r="E17">
-        <v>0.1337085183911268</v>
-      </c>
-      <c r="F17">
-        <v>0.2742760659032233</v>
-      </c>
-      <c r="G17">
-        <v>1.299999999999983</v>
-      </c>
-      <c r="H17">
-        <v>1.499999999999986</v>
-      </c>
       <c r="I17">
         <v>1.799999999999997</v>
       </c>
@@ -3072,35 +2889,11 @@
       <c r="AZ17">
         <v>1.799999999999997</v>
       </c>
-      <c r="BA17">
-        <v>1.799999999999997</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>0.3853649867570509</v>
-      </c>
-      <c r="D18">
-        <v>0.1343397658755641</v>
-      </c>
-      <c r="E18">
-        <v>0.1650962481296488</v>
-      </c>
-      <c r="F18">
-        <v>0.301095504273608</v>
-      </c>
-      <c r="G18">
-        <v>1.499999999999986</v>
-      </c>
-      <c r="H18">
-        <v>1.699999999999989</v>
-      </c>
-      <c r="I18">
-        <v>1.799999999999997</v>
-      </c>
       <c r="J18">
         <v>1</v>
       </c>
@@ -3230,35 +3023,11 @@
       <c r="AZ18">
         <v>1</v>
       </c>
-      <c r="BA18">
-        <v>1</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>0.3770892254555582</v>
-      </c>
-      <c r="D19">
-        <v>0.1343359984471259</v>
-      </c>
-      <c r="E19">
-        <v>0.1700970685207487</v>
-      </c>
-      <c r="F19">
-        <v>0.3508192515596016</v>
-      </c>
-      <c r="G19">
-        <v>0.8890442050908227</v>
-      </c>
-      <c r="H19">
-        <v>1.328396677043531</v>
-      </c>
-      <c r="I19">
-        <v>1.499999999999986</v>
-      </c>
       <c r="J19">
         <v>0.5999999999999943</v>
       </c>
@@ -3388,38 +3157,11 @@
       <c r="AZ19">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA19">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>0.378462663865183</v>
-      </c>
-      <c r="D20">
-        <v>0.1343370476875998</v>
-      </c>
-      <c r="E20">
-        <v>0.1665744063508853</v>
-      </c>
-      <c r="F20">
-        <v>0.3784609398083806</v>
-      </c>
-      <c r="G20">
-        <v>0.67601500929466</v>
-      </c>
-      <c r="H20">
-        <v>0.9893951240792414</v>
-      </c>
-      <c r="I20">
-        <v>1.499999999999986</v>
-      </c>
-      <c r="J20">
-        <v>0.8999999999999915</v>
-      </c>
       <c r="K20">
         <v>-0.4993864180312784</v>
       </c>
@@ -3546,32 +3288,11 @@
       <c r="AZ20">
         <v>-0.4993864180312784</v>
       </c>
-      <c r="BA20">
-        <v>-0.4993864180312784</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>0.1647897174469918</v>
-      </c>
-      <c r="F21">
-        <v>0.3835703110258958</v>
-      </c>
-      <c r="G21">
-        <v>0.6057347205958504</v>
-      </c>
-      <c r="H21">
-        <v>0.7976968887667364</v>
-      </c>
-      <c r="I21">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J21">
-        <v>1.499999999999986</v>
-      </c>
       <c r="K21">
         <v>-0.2000000000000313</v>
       </c>
@@ -3698,34 +3419,13 @@
       <c r="AZ21">
         <v>-0.2000000000000313</v>
       </c>
-      <c r="BA21">
-        <v>-0.2000000000000313</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>0.1648385356344041</v>
-      </c>
-      <c r="F22">
-        <v>0.3790789925749845</v>
-      </c>
-      <c r="G22">
-        <v>0.582615990647295</v>
-      </c>
-      <c r="H22">
-        <v>0.7166391955538025</v>
-      </c>
-      <c r="I22">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J22">
-        <v>1.799999999999997</v>
-      </c>
       <c r="K22">
-        <v>0.9999999999999716</v>
+        <v>0.175415575052187</v>
       </c>
       <c r="L22">
         <v>0.7063371330579002</v>
@@ -3850,34 +3550,13 @@
       <c r="AZ22">
         <v>0.7063371330579002</v>
       </c>
-      <c r="BA22">
-        <v>0.7063371330579002</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>0.1651331981149811</v>
-      </c>
-      <c r="F23">
-        <v>0.3743632805586998</v>
-      </c>
-      <c r="G23">
-        <v>0.5750122748654659</v>
-      </c>
-      <c r="H23">
-        <v>0.6926248533713218</v>
-      </c>
-      <c r="I23">
-        <v>1.257485748371488</v>
-      </c>
-      <c r="J23">
-        <v>1.455436197002677</v>
-      </c>
       <c r="K23">
-        <v>1.300000000000011</v>
+        <v>0.388738294145479</v>
       </c>
       <c r="L23">
         <v>0.4489068848233728</v>
@@ -4002,37 +3681,16 @@
       <c r="AZ23">
         <v>0.4489068848233728</v>
       </c>
-      <c r="BA23">
-        <v>0.4489068848233728</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>0.1652089773048686</v>
-      </c>
-      <c r="F24">
-        <v>0.372315638126426</v>
-      </c>
-      <c r="G24">
-        <v>0.5725114455227911</v>
-      </c>
-      <c r="H24">
-        <v>0.6906588859169673</v>
-      </c>
-      <c r="I24">
-        <v>1.143746160314012</v>
-      </c>
-      <c r="J24">
-        <v>1.136979520290616</v>
-      </c>
       <c r="K24">
-        <v>1.299999999999969</v>
+        <v>0.4741196101473427</v>
       </c>
       <c r="L24">
-        <v>1.399999999999977</v>
+        <v>0.4379071484683505</v>
       </c>
       <c r="M24">
         <v>1.408791801231501</v>
@@ -4154,31 +3812,16 @@
       <c r="AZ24">
         <v>1.408791801231501</v>
       </c>
-      <c r="BA24">
-        <v>1.408791801231501</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>0.5716889339153478</v>
-      </c>
-      <c r="H25">
-        <v>0.694185360433587</v>
-      </c>
-      <c r="I25">
-        <v>1.064914530466967</v>
-      </c>
-      <c r="J25">
-        <v>0.9524912602214386</v>
-      </c>
       <c r="K25">
-        <v>1.300000000000011</v>
+        <v>0.4972848114828454</v>
       </c>
       <c r="L25">
-        <v>1.499999999999986</v>
+        <v>0.476854602658835</v>
       </c>
       <c r="M25">
         <v>0.5999999999999943</v>
@@ -4300,34 +3943,19 @@
       <c r="AZ25">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA25">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>0.5714184135260784</v>
-      </c>
-      <c r="H26">
-        <v>0.6974168740183974</v>
-      </c>
-      <c r="I26">
-        <v>1.01153128784045</v>
-      </c>
-      <c r="J26">
-        <v>0.8666059340884734</v>
-      </c>
       <c r="K26">
-        <v>1.299999999999983</v>
+        <v>0.498768958124206</v>
       </c>
       <c r="L26">
-        <v>1.500000000000028</v>
+        <v>0.5048832483931341</v>
       </c>
       <c r="M26">
-        <v>1.400000000000006</v>
+        <v>0.4684960741415944</v>
       </c>
       <c r="N26">
         <v>1.011699570515816</v>
@@ -4446,34 +4074,19 @@
       <c r="AZ26">
         <v>1.011699570515816</v>
       </c>
-      <c r="BA26">
-        <v>1.011699570515816</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>0.5713294405799852</v>
-      </c>
-      <c r="H27">
-        <v>0.6992475822573625</v>
-      </c>
-      <c r="I27">
-        <v>0.9755328296906309</v>
-      </c>
-      <c r="J27">
-        <v>0.8330242019779617</v>
-      </c>
       <c r="K27">
-        <v>1.010523273791623</v>
+        <v>0.4957752963621709</v>
       </c>
       <c r="L27">
-        <v>1.118251651517613</v>
+        <v>0.5166246919577082</v>
       </c>
       <c r="M27">
-        <v>1.499999999999986</v>
+        <v>0.4974436753591617</v>
       </c>
       <c r="N27">
         <v>0.9935161553936211</v>
@@ -4592,37 +4205,22 @@
       <c r="AZ27">
         <v>0.9935161553936211</v>
       </c>
-      <c r="BA27">
-        <v>0.9935161553936211</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>0.5713001777759604</v>
-      </c>
-      <c r="H28">
-        <v>0.7000229380771675</v>
-      </c>
-      <c r="I28">
-        <v>0.9512763928329473</v>
-      </c>
-      <c r="J28">
-        <v>0.822322152302017</v>
-      </c>
       <c r="K28">
-        <v>0.7889293653569175</v>
+        <v>0.4933984105259274</v>
       </c>
       <c r="L28">
-        <v>0.8447876743730567</v>
+        <v>0.5194363975618669</v>
       </c>
       <c r="M28">
-        <v>1.499999999999972</v>
+        <v>0.5319121346471484</v>
       </c>
       <c r="N28">
-        <v>1.000000000000028</v>
+        <v>0.7901555921670045</v>
       </c>
       <c r="O28">
         <v>1.302043324436823</v>
@@ -4738,31 +4336,22 @@
       <c r="AZ28">
         <v>1.302043324436823</v>
       </c>
-      <c r="BA28">
-        <v>1.302043324436823</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>0.9349342823384623</v>
-      </c>
-      <c r="J29">
-        <v>0.8200086905315318</v>
-      </c>
       <c r="K29">
-        <v>0.6924968148305874</v>
+        <v>0.4922394768019979</v>
       </c>
       <c r="L29">
-        <v>0.718151638653168</v>
+        <v>0.5192050491100878</v>
       </c>
       <c r="M29">
-        <v>1.499999999999986</v>
+        <v>0.5484754544560971</v>
       </c>
       <c r="N29">
-        <v>1.099999999999952</v>
+        <v>0.6741244035237234</v>
       </c>
       <c r="O29">
         <v>1.299999999999969</v>
@@ -4878,34 +4467,25 @@
       <c r="AZ29">
         <v>1.299999999999969</v>
       </c>
-      <c r="BA29">
-        <v>1.299999999999969</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>0.9239245226665018</v>
-      </c>
-      <c r="J30">
-        <v>0.820116699110508</v>
-      </c>
       <c r="K30">
-        <v>0.674710184031188</v>
+        <v>0.4918345036589659</v>
       </c>
       <c r="L30">
-        <v>0.6770497056201609</v>
+        <v>0.5185445623128243</v>
       </c>
       <c r="M30">
-        <v>1.500000000000014</v>
+        <v>0.553722296972926</v>
       </c>
       <c r="N30">
-        <v>1.100000000000009</v>
+        <v>0.6272013961420397</v>
       </c>
       <c r="O30">
-        <v>1.199999999999974</v>
+        <v>0.993854718345358</v>
       </c>
       <c r="P30">
         <v>0.3957849067177932</v>
@@ -5018,34 +4598,25 @@
       <c r="AZ30">
         <v>0.3957849067177932</v>
       </c>
-      <c r="BA30">
-        <v>0.3957849067177932</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>0.9165072298687118</v>
-      </c>
-      <c r="J31">
-        <v>0.8206085584135484</v>
-      </c>
       <c r="K31">
-        <v>0.6854785181937578</v>
+        <v>0.4917503090597629</v>
       </c>
       <c r="L31">
-        <v>0.6705814847434199</v>
+        <v>0.518144407451034</v>
       </c>
       <c r="M31">
-        <v>1.194326466332032</v>
+        <v>0.5546396228554309</v>
       </c>
       <c r="N31">
-        <v>0.8831641120544982</v>
+        <v>0.6116018357363973</v>
       </c>
       <c r="O31">
-        <v>1.200000000000003</v>
+        <v>0.8071503129555597</v>
       </c>
       <c r="P31">
         <v>0.4505051707104855</v>
@@ -5158,37 +4729,25 @@
       <c r="AZ31">
         <v>0.4505051707104855</v>
       </c>
-      <c r="BA31">
-        <v>0.4505051707104855</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>0.9115101922693192</v>
-      </c>
-      <c r="J32">
-        <v>0.8209684274055875</v>
-      </c>
-      <c r="K32">
-        <v>0.6982191920032412</v>
-      </c>
       <c r="L32">
-        <v>0.6734049336590693</v>
+        <v>0.5179955664416609</v>
       </c>
       <c r="M32">
-        <v>0.9957211900208572</v>
+        <v>0.5544898116268788</v>
       </c>
       <c r="N32">
-        <v>0.7528873439260165</v>
+        <v>0.6072498318675675</v>
       </c>
       <c r="O32">
-        <v>1.200000000000017</v>
+        <v>0.7226606164099376</v>
       </c>
       <c r="P32">
-        <v>0.4918726750701836</v>
+        <v>0.5498655066520923</v>
       </c>
       <c r="Q32">
         <v>0.59458493635276</v>
@@ -5298,31 +4857,25 @@
       <c r="AZ32">
         <v>0.59458493635276</v>
       </c>
-      <c r="BA32">
-        <v>0.59458493635276</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>0.7052492700124121</v>
-      </c>
       <c r="L33">
-        <v>0.67660100005993</v>
+        <v>0.5179679906934161</v>
       </c>
       <c r="M33">
-        <v>0.8859226629720585</v>
+        <v>0.5542801906790057</v>
       </c>
       <c r="N33">
-        <v>0.6950986961475046</v>
+        <v>0.6062863540663503</v>
       </c>
       <c r="O33">
-        <v>1.199999999999974</v>
+        <v>0.689066293785326</v>
       </c>
       <c r="P33">
-        <v>0.4581239384585416</v>
+        <v>0.6022093788461329</v>
       </c>
       <c r="Q33">
         <v>0.4999999999999432</v>
@@ -5432,34 +4985,25 @@
       <c r="AZ33">
         <v>0.4999999999999432</v>
       </c>
-      <c r="BA33">
-        <v>0.4999999999999432</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>0.7074091708241053</v>
-      </c>
-      <c r="L34">
-        <v>0.6783782447395824</v>
-      </c>
       <c r="M34">
-        <v>0.8270849037012609</v>
+        <v>0.5541759990081134</v>
       </c>
       <c r="N34">
-        <v>0.6726849763308161</v>
+        <v>0.6061628157135404</v>
       </c>
       <c r="O34">
-        <v>1.200000000000017</v>
+        <v>0.6766964799326046</v>
       </c>
       <c r="P34">
-        <v>0.4999999999999858</v>
+        <v>0.6222889010991093</v>
       </c>
       <c r="Q34">
-        <v>0.5000000000000284</v>
+        <v>0.5548956168593799</v>
       </c>
       <c r="R34">
         <v>0.6016050630459375</v>
@@ -5566,34 +5110,25 @@
       <c r="AZ34">
         <v>0.6016050630459375</v>
       </c>
-      <c r="BA34">
-        <v>0.6016050630459375</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>0.7072849430416195</v>
-      </c>
-      <c r="L35">
-        <v>0.6790715196033797</v>
-      </c>
       <c r="M35">
-        <v>0.7957677516699174</v>
+        <v>0.5541420433370071</v>
       </c>
       <c r="N35">
-        <v>0.6646774472488939</v>
+        <v>0.6061874839002778</v>
       </c>
       <c r="O35">
-        <v>1.006221327437214</v>
+        <v>0.6723810978083615</v>
       </c>
       <c r="P35">
-        <v>0.5645209247151485</v>
+        <v>0.6284794833781222</v>
       </c>
       <c r="Q35">
-        <v>0.4999999999999716</v>
+        <v>0.5968515491943198</v>
       </c>
       <c r="R35">
         <v>0.6001107530880319</v>
@@ -5700,37 +5235,25 @@
       <c r="AZ35">
         <v>0.6001107530880319</v>
       </c>
-      <c r="BA35">
-        <v>0.6001107530880319</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>0.7066436936406724</v>
-      </c>
-      <c r="L36">
-        <v>0.6792457071010277</v>
-      </c>
-      <c r="M36">
-        <v>0.7791237282547808</v>
-      </c>
       <c r="N36">
-        <v>0.6619836975779897</v>
+        <v>0.6062141216039374</v>
       </c>
       <c r="O36">
-        <v>0.8814815727080936</v>
+        <v>0.6709382322106507</v>
       </c>
       <c r="P36">
-        <v>0.5980236386067044</v>
+        <v>0.629969165775996</v>
       </c>
       <c r="Q36">
-        <v>0.4000000000000199</v>
+        <v>0.6156213842140762</v>
       </c>
       <c r="R36">
-        <v>0.6000000000000512</v>
+        <v>0.6133478326810137</v>
       </c>
       <c r="S36">
         <v>0.5980962996738413</v>
@@ -5834,31 +5357,25 @@
       <c r="AZ36">
         <v>0.5980962996738413</v>
       </c>
-      <c r="BA36">
-        <v>0.5980962996738413</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>0.7702809326631648</v>
-      </c>
       <c r="N37">
-        <v>0.6611216759832359</v>
+        <v>0.6062270936631728</v>
       </c>
       <c r="O37">
-        <v>0.8162885249182339</v>
+        <v>0.670473095186798</v>
       </c>
       <c r="P37">
-        <v>0.6109997934050296</v>
+        <v>0.6301832462212279</v>
       </c>
       <c r="Q37">
-        <v>0.3999999999999773</v>
+        <v>0.6221996698543059</v>
       </c>
       <c r="R37">
-        <v>0.5999999999999517</v>
+        <v>0.6212283404120086</v>
       </c>
       <c r="S37">
         <v>0.5999999999999943</v>
@@ -5962,34 +5479,25 @@
       <c r="AZ37">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA37">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>0.7655831970684207</v>
-      </c>
-      <c r="N38">
-        <v>0.6608582226751206</v>
-      </c>
       <c r="O38">
-        <v>0.7840455633959825</v>
+        <v>0.6703281308386487</v>
       </c>
       <c r="P38">
-        <v>0.6151460289624587</v>
+        <v>0.6301502441389739</v>
       </c>
       <c r="Q38">
-        <v>0.4000000000000057</v>
+        <v>0.624080146516392</v>
       </c>
       <c r="R38">
-        <v>0.6000000000000512</v>
+        <v>0.6244467952833158</v>
       </c>
       <c r="S38">
-        <v>0.5999999999999943</v>
+        <v>0.6128232635268569</v>
       </c>
       <c r="T38">
         <v>0.6486835802838442</v>
@@ -6090,34 +5598,25 @@
       <c r="AZ38">
         <v>0.6486835802838442</v>
       </c>
-      <c r="BA38">
-        <v>0.6486835802838442</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>0.7630875661788089</v>
-      </c>
-      <c r="N39">
-        <v>0.6607813658435308</v>
-      </c>
       <c r="O39">
-        <v>0.7683717410364482</v>
+        <v>0.670284440151263</v>
       </c>
       <c r="P39">
-        <v>0.6162361819629363</v>
+        <v>0.6301081762059729</v>
       </c>
       <c r="Q39">
-        <v>0.500305859945982</v>
+        <v>0.6244909194686585</v>
       </c>
       <c r="R39">
-        <v>0.5999999999999943</v>
+        <v>0.6255032120908844</v>
       </c>
       <c r="S39">
-        <v>0.6000000000000512</v>
+        <v>0.6201080719598528</v>
       </c>
       <c r="T39">
         <v>0.6499971057671843</v>
@@ -6218,37 +5717,25 @@
       <c r="AZ39">
         <v>0.6499971057671843</v>
       </c>
-      <c r="BA39">
-        <v>0.6499971057671843</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>0.7617617890293963</v>
-      </c>
-      <c r="N40">
-        <v>0.6607600758916246</v>
-      </c>
-      <c r="O40">
-        <v>0.7607954380898743</v>
-      </c>
       <c r="P40">
-        <v>0.616446916637571</v>
+        <v>0.6300870595559915</v>
       </c>
       <c r="Q40">
-        <v>0.5593003424972381</v>
+        <v>0.6245342827391022</v>
       </c>
       <c r="R40">
-        <v>0.5999999999999801</v>
+        <v>0.6257840872806915</v>
       </c>
       <c r="S40">
-        <v>0.5999999999999517</v>
+        <v>0.6230240252024877</v>
       </c>
       <c r="T40">
-        <v>0.6499999999999915</v>
+        <v>0.6379887933625122</v>
       </c>
       <c r="U40">
         <v>0.600949061571356</v>
@@ -6346,31 +5833,25 @@
       <c r="AZ40">
         <v>0.600949061571356</v>
       </c>
-      <c r="BA40">
-        <v>0.600949061571356</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>0.7571401517313927</v>
-      </c>
       <c r="P41">
-        <v>0.6164578255919112</v>
+        <v>0.6300791698666265</v>
       </c>
       <c r="Q41">
-        <v>0.5839250804778222</v>
+        <v>0.6245166698445421</v>
       </c>
       <c r="R41">
-        <v>0.6000000000000512</v>
+        <v>0.6258378356788326</v>
       </c>
       <c r="S41">
-        <v>0.6000000000000512</v>
+        <v>0.623967170685982</v>
       </c>
       <c r="T41">
-        <v>0.6499999999999915</v>
+        <v>0.6308433729533227</v>
       </c>
       <c r="U41">
         <v>0.5999999999999943</v>
@@ -6468,34 +5949,25 @@
       <c r="AZ41">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA41">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>0.7553777228078277</v>
-      </c>
-      <c r="P42">
-        <v>0.6164424458451282</v>
-      </c>
       <c r="Q42">
-        <v>0.5924838455740801</v>
+        <v>0.6245018477838404</v>
       </c>
       <c r="R42">
-        <v>0.5999999999999801</v>
+        <v>0.6258399124104098</v>
       </c>
       <c r="S42">
-        <v>0.5999999999999943</v>
+        <v>0.6242139483345154</v>
       </c>
       <c r="T42">
-        <v>0.6499999999999915</v>
+        <v>0.6279267375719488</v>
       </c>
       <c r="U42">
-        <v>0.5999999999999517</v>
+        <v>0.6125661284935743</v>
       </c>
       <c r="V42">
         <v>0.9401796321600813</v>
@@ -6590,37 +6062,28 @@
       <c r="AZ42">
         <v>0.9401796321600813</v>
       </c>
-      <c r="BA42">
-        <v>0.9401796321600813</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>0.7545281315989821</v>
-      </c>
-      <c r="P43">
-        <v>0.6164323011370341</v>
-      </c>
       <c r="Q43">
-        <v>0.5950448537996385</v>
+        <v>0.6244950306990403</v>
       </c>
       <c r="R43">
-        <v>0.6110018872267426</v>
+        <v>0.6258355195786062</v>
       </c>
       <c r="S43">
-        <v>0.6109760108711988</v>
+        <v>0.624259759715485</v>
       </c>
       <c r="T43">
-        <v>0.6400000000000432</v>
+        <v>0.6269704581747343</v>
       </c>
       <c r="U43">
-        <v>0.6000000000000227</v>
+        <v>0.6199975513551096</v>
       </c>
       <c r="V43">
-        <v>0.9001742670336341</v>
+        <v>0.8197424334666333</v>
       </c>
       <c r="W43">
         <v>0.9025026375028489</v>
@@ -6712,40 +6175,28 @@
       <c r="AZ43">
         <v>0.9025026375028489</v>
       </c>
-      <c r="BA43">
-        <v>0.9025026375028489</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>0.7541186092432318</v>
-      </c>
-      <c r="P44">
-        <v>0.6164279423311744</v>
-      </c>
-      <c r="Q44">
-        <v>0.5956916366685487</v>
-      </c>
       <c r="R44">
-        <v>0.617421623512673</v>
+        <v>0.6258327395234776</v>
       </c>
       <c r="S44">
-        <v>0.6173806538322314</v>
+        <v>0.6242607996641242</v>
       </c>
       <c r="T44">
-        <v>0.6399999999999721</v>
+        <v>0.6267168289941537</v>
       </c>
       <c r="U44">
-        <v>0.5999999999999943</v>
+        <v>0.6230239727793354</v>
       </c>
       <c r="V44">
-        <v>0.9000000000000057</v>
+        <v>0.7134080140512251</v>
       </c>
       <c r="W44">
-        <v>0.8999999999999631</v>
+        <v>0.7640908255768235</v>
       </c>
       <c r="X44">
         <v>0.9987092793436005</v>
@@ -6834,37 +6285,31 @@
       <c r="AZ44">
         <v>0.9987092793436005</v>
       </c>
-      <c r="BA44">
-        <v>0.9987092793436005</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>0.5958148651781495</v>
-      </c>
       <c r="R45">
-        <v>0.6200257478351996</v>
+        <v>0.6258315752556107</v>
       </c>
       <c r="S45">
-        <v>0.619978723858898</v>
+        <v>0.6242566368708632</v>
       </c>
       <c r="T45">
-        <v>0.6400000000000432</v>
+        <v>0.6266686342780827</v>
       </c>
       <c r="U45">
-        <v>0.5999999999999801</v>
+        <v>0.6240152681677444</v>
       </c>
       <c r="V45">
-        <v>0.7999999999999972</v>
+        <v>0.6641085280863176</v>
       </c>
       <c r="W45">
-        <v>0.7999999999999972</v>
+        <v>0.6869614395860755</v>
       </c>
       <c r="X45">
-        <v>0.9000000000000057</v>
+        <v>0.8319651710870585</v>
       </c>
       <c r="Y45">
         <v>0.8989194962581735</v>
@@ -6950,40 +6395,31 @@
       <c r="AZ45">
         <v>0.8989194962581735</v>
       </c>
-      <c r="BA45">
-        <v>0.8989194962581735</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>0.5958223921557664</v>
-      </c>
-      <c r="R46">
-        <v>0.6208789908214555</v>
-      </c>
       <c r="S46">
-        <v>0.6208300391942848</v>
+        <v>0.624254099399542</v>
       </c>
       <c r="T46">
-        <v>0.6399999999999721</v>
+        <v>0.6266669838594641</v>
       </c>
       <c r="U46">
-        <v>0.6000000000000227</v>
+        <v>0.6242782240880764</v>
       </c>
       <c r="V46">
-        <v>0.7999999999999545</v>
+        <v>0.6466022605831784</v>
       </c>
       <c r="W46">
-        <v>0.7999999999999829</v>
+        <v>0.6566266812595689</v>
       </c>
       <c r="X46">
-        <v>0.8999999999999488</v>
+        <v>0.7234281950483246</v>
       </c>
       <c r="Y46">
-        <v>0.8999999999999915</v>
+        <v>0.7649681363312416</v>
       </c>
       <c r="Z46">
         <v>0.6</v>
@@ -7066,43 +6502,34 @@
       <c r="AZ46">
         <v>0.6</v>
       </c>
-      <c r="BA46">
-        <v>0.6</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>0.5958144446182138</v>
-      </c>
-      <c r="R47">
-        <v>0.6211065901265933</v>
-      </c>
       <c r="S47">
-        <v>0.6210571576046585</v>
+        <v>0.6242530520682706</v>
       </c>
       <c r="T47">
-        <v>0.6344716807022815</v>
+        <v>0.6266710518127853</v>
       </c>
       <c r="U47">
-        <v>0.6111727557667155</v>
+        <v>0.6243283284944846</v>
       </c>
       <c r="V47">
-        <v>0.8000000000000398</v>
+        <v>0.6416084939219998</v>
       </c>
       <c r="W47">
-        <v>0.8000000000000256</v>
+        <v>0.6471399903771482</v>
       </c>
       <c r="X47">
-        <v>0.8999999999999631</v>
+        <v>0.676996750494185</v>
       </c>
       <c r="Y47">
-        <v>0.8998800592729737</v>
+        <v>0.6962342718248903</v>
       </c>
       <c r="Z47">
-        <v>0.6</v>
+        <v>0.5944381378767377</v>
       </c>
       <c r="AA47">
         <v>0.5479150381202658</v>
@@ -7182,46 +6609,34 @@
       <c r="AZ47">
         <v>0.5479150381202658</v>
       </c>
-      <c r="BA47">
-        <v>0.5479150381202658</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>0.5958090144539224</v>
-      </c>
-      <c r="R48">
-        <v>0.621150840208835</v>
-      </c>
-      <c r="S48">
-        <v>0.621101332213565</v>
-      </c>
       <c r="T48">
-        <v>0.63124436970423</v>
+        <v>0.6266735982454875</v>
       </c>
       <c r="U48">
-        <v>0.6176919389529261</v>
+        <v>0.6243301542459735</v>
       </c>
       <c r="V48">
-        <v>0.7999999999999972</v>
+        <v>0.6405488226067684</v>
       </c>
       <c r="W48">
-        <v>0.7999999999999829</v>
+        <v>0.6448423886229057</v>
       </c>
       <c r="X48">
-        <v>0.9000000000000057</v>
+        <v>0.6610618919018423</v>
       </c>
       <c r="Y48">
-        <v>0.9000000000000057</v>
+        <v>0.6696952967607305</v>
       </c>
       <c r="Z48">
-        <v>0.6</v>
+        <v>0.6233656042737833</v>
       </c>
       <c r="AA48">
-        <v>0.5500000000000114</v>
+        <v>0.5948692367290204</v>
       </c>
       <c r="AB48">
         <v>0.5</v>
@@ -7298,46 +6713,37 @@
       <c r="AZ48">
         <v>0.5</v>
       </c>
-      <c r="BA48">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>0.6211530384587338</v>
-      </c>
-      <c r="S49">
-        <v>0.6211035376781573</v>
-      </c>
       <c r="T49">
-        <v>0.6299385238463466</v>
+        <v>0.6266746597317692</v>
       </c>
       <c r="U49">
-        <v>0.6203345375000234</v>
+        <v>0.6243259966606781</v>
       </c>
       <c r="V49">
-        <v>0.8000000000000256</v>
+        <v>0.6404594719982165</v>
       </c>
       <c r="W49">
-        <v>0.8000000000000398</v>
+        <v>0.6445163805963514</v>
       </c>
       <c r="X49">
-        <v>0.8999999999999915</v>
+        <v>0.6565627137235942</v>
       </c>
       <c r="Y49">
-        <v>0.8999999999999915</v>
+        <v>0.6612432881593621</v>
       </c>
       <c r="Z49">
-        <v>0.6</v>
+        <v>0.6410325950072985</v>
       </c>
       <c r="AA49">
-        <v>0.5499999999999829</v>
+        <v>0.6282658307596343</v>
       </c>
       <c r="AB49">
-        <v>0.4</v>
+        <v>0.5699694453012558</v>
       </c>
       <c r="AC49">
         <v>0.7003888945527734</v>
@@ -7411,49 +6817,37 @@
       <c r="AZ49">
         <v>0.7003888945527734</v>
       </c>
-      <c r="BA49">
-        <v>0.7003888945527734</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>0.621149728509837</v>
-      </c>
-      <c r="S50">
-        <v>0.6211002400301902</v>
-      </c>
-      <c r="T50">
-        <v>0.6295137327511948</v>
-      </c>
       <c r="U50">
-        <v>0.6211988739419909</v>
+        <v>0.6243233803399489</v>
       </c>
       <c r="V50">
-        <v>0.7999999999999972</v>
+        <v>0.6405196002144959</v>
       </c>
       <c r="W50">
-        <v>0.7999999999999829</v>
+        <v>0.6445725988836425</v>
       </c>
       <c r="X50">
-        <v>0.8999999999999915</v>
+        <v>0.6555906553038608</v>
       </c>
       <c r="Y50">
-        <v>0.8999999999999488</v>
+        <v>0.6590420145116711</v>
       </c>
       <c r="Z50">
-        <v>0.6</v>
+        <v>0.6483394350935202</v>
       </c>
       <c r="AA50">
-        <v>0.5500000000000256</v>
+        <v>0.6428934673286254</v>
       </c>
       <c r="AB50">
-        <v>0.5</v>
+        <v>0.6165386467492353</v>
       </c>
       <c r="AC50">
-        <v>0.6999999999999602</v>
+        <v>0.6965775356018986</v>
       </c>
       <c r="AD50">
         <v>0.6487569224423311</v>
@@ -7524,52 +6918,40 @@
       <c r="AZ50">
         <v>0.6487569224423311</v>
       </c>
-      <c r="BA50">
-        <v>0.6487569224423311</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>0.6211475689607034</v>
-      </c>
-      <c r="S51">
-        <v>0.6210980869210529</v>
-      </c>
-      <c r="T51">
-        <v>0.629402322829347</v>
-      </c>
       <c r="U51">
-        <v>0.6214285383318322</v>
+        <v>0.6243222870752653</v>
       </c>
       <c r="V51">
-        <v>0.7324669686834797</v>
+        <v>0.6405641600505386</v>
       </c>
       <c r="W51">
-        <v>0.7324975535965068</v>
+        <v>0.6446406840595658</v>
       </c>
       <c r="X51">
-        <v>0.7919595830919488</v>
+        <v>0.6554921796048977</v>
       </c>
       <c r="Y51">
-        <v>0.8999999999999915</v>
+        <v>0.6586311930003759</v>
       </c>
       <c r="Z51">
-        <v>0.6</v>
+        <v>0.6507469467031738</v>
       </c>
       <c r="AA51">
-        <v>0.5500000000000114</v>
+        <v>0.6479063739245866</v>
       </c>
       <c r="AB51">
-        <v>0.4</v>
+        <v>0.6364975928256333</v>
       </c>
       <c r="AC51">
-        <v>0.7000316462183491</v>
+        <v>0.6724847819117837</v>
       </c>
       <c r="AD51">
-        <v>0.6495376404138256</v>
+        <v>0.6432532556370034</v>
       </c>
       <c r="AE51">
         <v>0.7003348337051136</v>
@@ -7637,55 +7019,40 @@
       <c r="AZ51">
         <v>0.7003348337051136</v>
       </c>
-      <c r="BA51">
-        <v>0.7003348337051136</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>0.621146652372276</v>
-      </c>
-      <c r="S52">
-        <v>0.6210971727934422</v>
-      </c>
-      <c r="T52">
-        <v>0.6293817115569876</v>
-      </c>
-      <c r="U52">
-        <v>0.6214727075583909</v>
-      </c>
       <c r="V52">
-        <v>0.6924817335160296</v>
+        <v>0.6405837958238813</v>
       </c>
       <c r="W52">
-        <v>0.6925242683796495</v>
+        <v>0.6446745657293316</v>
       </c>
       <c r="X52">
-        <v>0.72716461554358</v>
+        <v>0.6555367123001695</v>
       </c>
       <c r="Y52">
-        <v>0.8999999999999915</v>
+        <v>0.6586203441778972</v>
       </c>
       <c r="Z52">
-        <v>0.6</v>
+        <v>0.6513800951751256</v>
       </c>
       <c r="AA52">
-        <v>0.5500000000000114</v>
+        <v>0.6492785376261704</v>
       </c>
       <c r="AB52">
-        <v>0.4</v>
+        <v>0.6432552657527532</v>
       </c>
       <c r="AC52">
-        <v>0.7000000000000313</v>
+        <v>0.6586803894815501</v>
       </c>
       <c r="AD52">
-        <v>0.6510000000000389</v>
+        <v>0.6455917810183722</v>
       </c>
       <c r="AE52">
-        <v>0.6999999999999886</v>
+        <v>0.6804285117062663</v>
       </c>
       <c r="AF52">
         <v>-1</v>
@@ -7750,52 +7117,40 @@
       <c r="AZ52">
         <v>-1</v>
       </c>
-      <c r="BA52">
-        <v>-1</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>0.6293813311166115</v>
-      </c>
-      <c r="U53">
-        <v>0.6214746089495535</v>
-      </c>
-      <c r="V53">
-        <v>0.675889616919307</v>
-      </c>
       <c r="W53">
-        <v>0.6759371886322534</v>
+        <v>0.6446871069252822</v>
       </c>
       <c r="X53">
-        <v>0.6992583204747702</v>
+        <v>0.6555733840377923</v>
       </c>
       <c r="Y53">
-        <v>0.8999999999999915</v>
+        <v>0.6586572680991045</v>
       </c>
       <c r="Z53">
-        <v>0.6</v>
+        <v>0.6514942501453165</v>
       </c>
       <c r="AA53">
-        <v>0.5499999999999829</v>
+        <v>0.649544520885002</v>
       </c>
       <c r="AB53">
-        <v>0.4</v>
+        <v>0.6450891356564766</v>
       </c>
       <c r="AC53">
-        <v>0.7000000000000171</v>
+        <v>0.6531590757549717</v>
       </c>
       <c r="AD53">
-        <v>0.6509999999999962</v>
+        <v>0.6475655875061554</v>
       </c>
       <c r="AE53">
-        <v>0.6999999999999886</v>
+        <v>0.6631190908660266</v>
       </c>
       <c r="AF53">
-        <v>1</v>
+        <v>0.798184409453512</v>
       </c>
       <c r="AG53">
         <v>0.798184409453512</v>
@@ -7857,55 +7212,40 @@
       <c r="AZ53">
         <v>0.798184409453512</v>
       </c>
-      <c r="BA53">
-        <v>0.798184409453512</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>0.6293832646833512</v>
-      </c>
-      <c r="U54">
-        <v>0.6214711275256913</v>
-      </c>
-      <c r="V54">
-        <v>0.6702591275518635</v>
-      </c>
-      <c r="W54">
-        <v>0.6703097668937024</v>
-      </c>
       <c r="X54">
-        <v>0.6890910126179489</v>
+        <v>0.655590318464941</v>
       </c>
       <c r="Y54">
-        <v>0.9000000000000057</v>
+        <v>0.6586802614326351</v>
       </c>
       <c r="Z54">
-        <v>0.6</v>
+        <v>0.6514933807249478</v>
       </c>
       <c r="AA54">
-        <v>0.5499999999999829</v>
+        <v>0.6495525736532761</v>
       </c>
       <c r="AB54">
-        <v>0.4</v>
+        <v>0.645441483164502</v>
       </c>
       <c r="AC54">
-        <v>0.6999999999999602</v>
+        <v>0.6514050643079964</v>
       </c>
       <c r="AD54">
-        <v>0.6509999999999962</v>
+        <v>0.6484763638951803</v>
       </c>
       <c r="AE54">
-        <v>0.7000000000000171</v>
+        <v>0.6550669355096918</v>
       </c>
       <c r="AF54">
-        <v>0.8</v>
+        <v>0.4905082240676993</v>
       </c>
       <c r="AG54">
-        <v>0.7999999999999829</v>
+        <v>0.7972078981263451</v>
       </c>
       <c r="AH54">
         <v>0.7972078981263451</v>
@@ -7964,58 +7304,40 @@
       <c r="AZ54">
         <v>0.7972078981263451</v>
       </c>
-      <c r="BA54">
-        <v>0.7972078981263451</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>0.6293844332459124</v>
-      </c>
-      <c r="U55">
-        <v>0.6214688985252254</v>
-      </c>
-      <c r="V55">
-        <v>0.6686654973906507</v>
-      </c>
-      <c r="W55">
-        <v>0.6687180948092439</v>
-      </c>
-      <c r="X55">
-        <v>0.6858225202613915</v>
-      </c>
       <c r="Y55">
-        <v>0.8397583439254299</v>
+        <v>0.6586899714878496</v>
       </c>
       <c r="Z55">
-        <v>0.6388831030950197</v>
+        <v>0.6514805673699259</v>
       </c>
       <c r="AA55">
-        <v>0.6061236246643367</v>
+        <v>0.6495284336673175</v>
       </c>
       <c r="AB55">
-        <v>0.5086719965303192</v>
+        <v>0.6454511633389819</v>
       </c>
       <c r="AC55">
-        <v>0.6999999999999886</v>
+        <v>0.6509716713283676</v>
       </c>
       <c r="AD55">
-        <v>0.6509999999999962</v>
+        <v>0.6487998728292704</v>
       </c>
       <c r="AE55">
-        <v>0.699999999999946</v>
+        <v>0.6521911642045575</v>
       </c>
       <c r="AF55">
-        <v>0.6</v>
+        <v>0.6086342162112945</v>
       </c>
       <c r="AG55">
-        <v>0.7002682369727609</v>
+        <v>0.7293790729760867</v>
       </c>
       <c r="AH55">
-        <v>0.7003085496485966</v>
+        <v>0.7006632596227007</v>
       </c>
       <c r="AI55">
         <v>0.7006632596227007</v>
@@ -8071,61 +7393,40 @@
       <c r="AZ55">
         <v>0.7006632596227007</v>
       </c>
-      <c r="BA55">
-        <v>0.7006632596227007</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>0.6293849132021405</v>
-      </c>
-      <c r="U56">
-        <v>0.6214679597799149</v>
-      </c>
-      <c r="V56">
-        <v>0.668312430137592</v>
-      </c>
-      <c r="W56">
-        <v>0.66836612147054</v>
-      </c>
-      <c r="X56">
-        <v>0.6848930711072233</v>
-      </c>
-      <c r="Y56">
-        <v>0.8066673284068846</v>
-      </c>
       <c r="Z56">
-        <v>0.6601087557762655</v>
+        <v>0.651473100956669</v>
       </c>
       <c r="AA56">
-        <v>0.6369379246480575</v>
+        <v>0.6495132982228986</v>
       </c>
       <c r="AB56">
-        <v>0.5690815045890597</v>
+        <v>0.645418713331374</v>
       </c>
       <c r="AC56">
-        <v>0.699999999999946</v>
+        <v>0.6509070720379445</v>
       </c>
       <c r="AD56">
-        <v>0.650999999999982</v>
+        <v>0.6488921102189156</v>
       </c>
       <c r="AE56">
-        <v>0.7000000000000171</v>
+        <v>0.6513662459048504</v>
       </c>
       <c r="AF56">
-        <v>0.6</v>
+        <v>0.6131157609177044</v>
       </c>
       <c r="AG56">
-        <v>0.6999999999999886</v>
+        <v>0.7021853095054148</v>
       </c>
       <c r="AH56">
-        <v>0.6999999999999886</v>
+        <v>0.6981375162569273</v>
       </c>
       <c r="AI56">
-        <v>0.6999999999999886</v>
+        <v>0.7005260309296233</v>
       </c>
       <c r="AJ56">
         <v>0.7005260309296233</v>
@@ -8178,58 +7479,40 @@
       <c r="AZ56">
         <v>0.7005260309296233</v>
       </c>
-      <c r="BA56">
-        <v>0.7005260309296233</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>0.6682705161014733</v>
-      </c>
-      <c r="W57">
-        <v>0.6683247312206131</v>
-      </c>
-      <c r="X57">
-        <v>0.6846670128696373</v>
-      </c>
-      <c r="Y57">
-        <v>0.7864980295498474</v>
-      </c>
-      <c r="Z57">
-        <v>0.6724094876916444</v>
-      </c>
       <c r="AA57">
-        <v>0.65485267017676</v>
+        <v>0.6495069796693619</v>
       </c>
       <c r="AB57">
-        <v>0.6051385326525281</v>
+        <v>0.6453984745465209</v>
       </c>
       <c r="AC57">
-        <v>0.7000000000000171</v>
+        <v>0.6509161864005716</v>
       </c>
       <c r="AD57">
-        <v>0.6510000000000247</v>
+        <v>0.6489115060261762</v>
       </c>
       <c r="AE57">
-        <v>0.6999999999999886</v>
+        <v>0.6511907937354957</v>
       </c>
       <c r="AF57">
-        <v>0.6</v>
+        <v>0.6301876487917106</v>
       </c>
       <c r="AG57">
-        <v>0.6999999999999886</v>
+        <v>0.6862103702280952</v>
       </c>
       <c r="AH57">
-        <v>0.6999999999999602</v>
+        <v>0.6904376061305122</v>
       </c>
       <c r="AI57">
-        <v>0.6999999999999602</v>
+        <v>0.7138514722310392</v>
       </c>
       <c r="AJ57">
-        <v>0.6999999999999886</v>
+        <v>1.501866008463963</v>
       </c>
       <c r="AK57">
         <v>1.501866008463963</v>
@@ -8279,61 +7562,40 @@
       <c r="AZ57">
         <v>1.501866008463963</v>
       </c>
-      <c r="BA57">
-        <v>1.501866008463963</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>0.6682827272867614</v>
-      </c>
-      <c r="W58">
-        <v>0.6683371591438046</v>
-      </c>
-      <c r="X58">
-        <v>0.6846256666345089</v>
-      </c>
-      <c r="Y58">
-        <v>0.7743245880397021</v>
-      </c>
-      <c r="Z58">
-        <v>0.679514014498806</v>
-      </c>
-      <c r="AA58">
-        <v>0.6652356862765773</v>
-      </c>
       <c r="AB58">
-        <v>0.6265586425299594</v>
+        <v>0.6453900216612437</v>
       </c>
       <c r="AC58">
-        <v>0.7000000000000171</v>
+        <v>0.6509286074095739</v>
       </c>
       <c r="AD58">
-        <v>0.6509999999999962</v>
+        <v>0.6489129667248179</v>
       </c>
       <c r="AE58">
-        <v>0.6999999999999602</v>
+        <v>0.6511765281097067</v>
       </c>
       <c r="AF58">
-        <v>0.6</v>
+        <v>0.6372091052385211</v>
       </c>
       <c r="AG58">
-        <v>0.6999999999999602</v>
+        <v>0.6777775829212265</v>
       </c>
       <c r="AH58">
-        <v>0.6999999999999886</v>
+        <v>0.6872745014567458</v>
       </c>
       <c r="AI58">
-        <v>0.7000000000000171</v>
+        <v>0.7183654981979772</v>
       </c>
       <c r="AJ58">
-        <v>0.6999999999999886</v>
+        <v>0.9883729973928892</v>
       </c>
       <c r="AK58">
-        <v>1.500000000000028</v>
+        <v>1.500711092634546</v>
       </c>
       <c r="AL58">
         <v>1.500711092634546</v>
@@ -8380,64 +7642,40 @@
       <c r="AZ58">
         <v>1.500711092634546</v>
       </c>
-      <c r="BA58">
-        <v>1.500711092634546</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>0.6682943530573474</v>
-      </c>
-      <c r="W59">
-        <v>0.6683488623965947</v>
-      </c>
-      <c r="X59">
-        <v>0.6846237878552695</v>
-      </c>
-      <c r="Y59">
-        <v>0.7669706417953337</v>
-      </c>
-      <c r="Z59">
-        <v>0.683618133059015</v>
-      </c>
-      <c r="AA59">
-        <v>0.6712544514963051</v>
-      </c>
-      <c r="AB59">
-        <v>0.6392873898887391</v>
-      </c>
       <c r="AC59">
-        <v>0.7347806526469144</v>
+        <v>0.6509349449412911</v>
       </c>
       <c r="AD59">
-        <v>0.7070621350880774</v>
+        <v>0.6489117305201365</v>
       </c>
       <c r="AE59">
-        <v>0.7341623625004199</v>
+        <v>0.6511870825098769</v>
       </c>
       <c r="AF59">
-        <v>0.6820058145199169</v>
+        <v>0.6420799595087489</v>
       </c>
       <c r="AG59">
-        <v>0.7000000000000313</v>
+        <v>0.6732042637238861</v>
       </c>
       <c r="AH59">
-        <v>0.6999999999999886</v>
+        <v>0.6855113720644723</v>
       </c>
       <c r="AI59">
-        <v>0.7000000000000171</v>
+        <v>0.7206067542113866</v>
       </c>
       <c r="AJ59">
-        <v>0.6999999999999886</v>
+        <v>0.8692682160948586</v>
       </c>
       <c r="AK59">
-        <v>1.699007269367826</v>
+        <v>1.049377289056371</v>
       </c>
       <c r="AL59">
-        <v>1.69759435664723</v>
+        <v>1.397766293286139</v>
       </c>
       <c r="AM59">
         <v>1.397766293286139</v>
@@ -8481,67 +7719,40 @@
       <c r="AZ59">
         <v>1.397766293286139</v>
       </c>
-      <c r="BA59">
-        <v>1.397766293286139</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>0.6682999558471238</v>
-      </c>
-      <c r="W60">
-        <v>0.6683544885131171</v>
-      </c>
-      <c r="X60">
-        <v>0.6846268527730406</v>
-      </c>
-      <c r="Y60">
-        <v>0.7625284974460181</v>
-      </c>
-      <c r="Z60">
-        <v>0.6859889619292988</v>
-      </c>
-      <c r="AA60">
-        <v>0.6747433435045712</v>
-      </c>
-      <c r="AB60">
-        <v>0.6468512085314735</v>
-      </c>
-      <c r="AC60">
-        <v>0.7508684739867857</v>
-      </c>
       <c r="AD60">
-        <v>0.7331392386908816</v>
+        <v>0.6489108437676037</v>
       </c>
       <c r="AE60">
-        <v>0.749942639223716</v>
+        <v>0.6511948461391254</v>
       </c>
       <c r="AF60">
-        <v>0.705253501033157</v>
+        <v>0.6448310862233521</v>
       </c>
       <c r="AG60">
-        <v>0.6999999999999886</v>
+        <v>0.6707413971458132</v>
       </c>
       <c r="AH60">
-        <v>0.7000000000000171</v>
+        <v>0.6846071700853682</v>
       </c>
       <c r="AI60">
-        <v>0.7000000000000171</v>
+        <v>0.7216076076730479</v>
       </c>
       <c r="AJ60">
-        <v>0.6999999999999602</v>
+        <v>0.803225968529127</v>
       </c>
       <c r="AK60">
-        <v>1.500000000000014</v>
+        <v>0.8905814170098083</v>
       </c>
       <c r="AL60">
-        <v>1.500000000000028</v>
+        <v>1.036812473598564</v>
       </c>
       <c r="AM60">
-        <v>1.700000000000017</v>
+        <v>0.9013714134183743</v>
       </c>
       <c r="AN60">
         <v>0.9013714134183743</v>
@@ -8582,61 +7793,40 @@
       <c r="AZ60">
         <v>0.9013714134183743</v>
       </c>
-      <c r="BA60">
-        <v>0.9013714134183743</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>0.7598452047859822</v>
-      </c>
-      <c r="Z61">
-        <v>0.6873585209725119</v>
-      </c>
-      <c r="AA61">
-        <v>0.6767657471962711</v>
-      </c>
-      <c r="AB61">
-        <v>0.6513458711537802</v>
-      </c>
-      <c r="AC61">
-        <v>0.7575957802662922</v>
-      </c>
-      <c r="AD61">
-        <v>0.7442888892148054</v>
-      </c>
       <c r="AE61">
-        <v>0.7565893663902287</v>
+        <v>0.6511982819474638</v>
       </c>
       <c r="AF61">
-        <v>0.716386645454931</v>
+        <v>0.6465028113298186</v>
       </c>
       <c r="AG61">
-        <v>0.6999999999999886</v>
+        <v>0.6694126630720203</v>
       </c>
       <c r="AH61">
-        <v>0.699999999999946</v>
+        <v>0.6841336479030674</v>
       </c>
       <c r="AI61">
-        <v>0.6999999999999602</v>
+        <v>0.7220665556611189</v>
       </c>
       <c r="AJ61">
-        <v>0.6999999999999886</v>
+        <v>0.7757038245551969</v>
       </c>
       <c r="AK61">
-        <v>0.9999999999999716</v>
+        <v>0.8224439769909031</v>
       </c>
       <c r="AL61">
-        <v>0.9999999999999574</v>
+        <v>0.9021798408074411</v>
       </c>
       <c r="AM61">
-        <v>0.9999999999999716</v>
+        <v>0.8454711577755215</v>
       </c>
       <c r="AN61">
-        <v>1.200000000000045</v>
+        <v>0.4038529775848758</v>
       </c>
       <c r="AO61">
         <v>0.4038529775848758</v>
@@ -8674,64 +7864,40 @@
       <c r="AZ61">
         <v>0.4038529775848758</v>
       </c>
-      <c r="BA61">
-        <v>0.4038529775848758</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>0.7582243536416813</v>
-      </c>
-      <c r="Z62">
-        <v>0.6881496754663674</v>
-      </c>
-      <c r="AA62">
-        <v>0.677938072560284</v>
-      </c>
-      <c r="AB62">
-        <v>0.6540167430228934</v>
-      </c>
-      <c r="AC62">
-        <v>0.760377180419285</v>
-      </c>
-      <c r="AD62">
-        <v>0.7490192559694581</v>
-      </c>
-      <c r="AE62">
-        <v>0.7593628398741853</v>
-      </c>
       <c r="AF62">
-        <v>0.7208305629039921</v>
+        <v>0.6474914669448729</v>
       </c>
       <c r="AG62">
-        <v>0.7000000000000171</v>
+        <v>0.6686961379214041</v>
       </c>
       <c r="AH62">
-        <v>0.6999999999999886</v>
+        <v>0.6838870004546868</v>
       </c>
       <c r="AI62">
-        <v>0.7000000000000171</v>
+        <v>0.722275577317908</v>
       </c>
       <c r="AJ62">
-        <v>0.7000000000000171</v>
+        <v>0.7633331364554775</v>
       </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0.794155515015371</v>
       </c>
       <c r="AL62">
-        <v>1.000000000000043</v>
+        <v>0.8410303751702665</v>
       </c>
       <c r="AM62">
-        <v>0.9000000000000057</v>
+        <v>0.8123132369679812</v>
       </c>
       <c r="AN62">
-        <v>1.199999999999974</v>
+        <v>0.6309982683852196</v>
       </c>
       <c r="AO62">
-        <v>0.4000000000000057</v>
+        <v>0.9991743200616696</v>
       </c>
       <c r="AP62">
         <v>0.9991743200616696</v>
@@ -8766,67 +7932,43 @@
       <c r="AZ62">
         <v>0.9991743200616696</v>
       </c>
-      <c r="BA62">
-        <v>0.9991743200616696</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>0.7572452734883609</v>
-      </c>
-      <c r="Z63">
-        <v>0.6886067024469229</v>
-      </c>
-      <c r="AA63">
-        <v>0.6786176336026708</v>
-      </c>
-      <c r="AB63">
-        <v>0.6556038602724655</v>
-      </c>
-      <c r="AC63">
-        <v>0.7615255918882495</v>
-      </c>
-      <c r="AD63">
-        <v>0.7510246623352623</v>
-      </c>
-      <c r="AE63">
-        <v>0.7605189564586572</v>
-      </c>
       <c r="AF63">
-        <v>0.7227070799944271</v>
+        <v>0.6480819786804523</v>
       </c>
       <c r="AG63">
-        <v>0.6867157673795904</v>
+        <v>0.6683097019810231</v>
       </c>
       <c r="AH63">
-        <v>0.6866653895777282</v>
+        <v>0.683758350138181</v>
       </c>
       <c r="AI63">
-        <v>0.6866702350383711</v>
+        <v>0.7223709397102052</v>
       </c>
       <c r="AJ63">
-        <v>0.6866774433550651</v>
+        <v>0.7578915354547811</v>
       </c>
       <c r="AK63">
-        <v>0.9000000000000057</v>
+        <v>0.782350924234971</v>
       </c>
       <c r="AL63">
-        <v>0.8999999999999488</v>
+        <v>0.8142500492851861</v>
       </c>
       <c r="AM63">
-        <v>0.8999999999999631</v>
+        <v>0.7989488369086671</v>
       </c>
       <c r="AN63">
-        <v>0.9999999999999716</v>
+        <v>0.7053925461531888</v>
       </c>
       <c r="AO63">
-        <v>0.7993577085058945</v>
+        <v>0.7940511664691853</v>
       </c>
       <c r="AP63">
-        <v>0.8950267598393395</v>
+        <v>0.6350385067502629</v>
       </c>
       <c r="AQ63">
         <v>0.6350385067502629</v>
@@ -8858,70 +8000,43 @@
       <c r="AZ63">
         <v>0.6350385067502629</v>
       </c>
-      <c r="BA63">
-        <v>0.6350385067502629</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>0.7566538570928431</v>
-      </c>
-      <c r="Z64">
-        <v>0.6888707136641482</v>
-      </c>
-      <c r="AA64">
-        <v>0.6790115542875547</v>
-      </c>
-      <c r="AB64">
-        <v>0.6565469759614514</v>
-      </c>
-      <c r="AC64">
-        <v>0.7619996818546019</v>
-      </c>
-      <c r="AD64">
-        <v>0.7518747784897785</v>
-      </c>
-      <c r="AE64">
-        <v>0.7610008285775702</v>
-      </c>
-      <c r="AF64">
-        <v>0.7234852206209615</v>
-      </c>
       <c r="AG64">
-        <v>0.6833409967517272</v>
+        <v>0.6681012961084828</v>
       </c>
       <c r="AH64">
-        <v>0.6832801520361071</v>
+        <v>0.6836912703037956</v>
       </c>
       <c r="AI64">
-        <v>0.6832861954027925</v>
+        <v>0.7224144276498363</v>
       </c>
       <c r="AJ64">
-        <v>0.6832952551332334</v>
+        <v>0.7554833744561369</v>
       </c>
       <c r="AK64">
-        <v>0.8999999999999915</v>
+        <v>0.7774288859393202</v>
       </c>
       <c r="AL64">
-        <v>0.9000000000000057</v>
+        <v>0.8024475062570496</v>
       </c>
       <c r="AM64">
-        <v>0.9000000000000057</v>
+        <v>0.7932814462364368</v>
       </c>
       <c r="AN64">
-        <v>0.9000000000000057</v>
+        <v>0.7364260662838091</v>
       </c>
       <c r="AO64">
-        <v>0.8000656869509868</v>
+        <v>0.7676422249342375</v>
       </c>
       <c r="AP64">
-        <v>0.9003962900060856</v>
+        <v>0.7211524315038069</v>
       </c>
       <c r="AQ64">
-        <v>0.7182009411999672</v>
+        <v>0.2134433935270721</v>
       </c>
       <c r="AR64">
         <v>0.2134433935270721</v>
@@ -8950,61 +8065,43 @@
       <c r="AZ64">
         <v>0.2134433935270721</v>
       </c>
-      <c r="BA64">
-        <v>0.2134433935270721</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>0.7621953929632662</v>
-      </c>
-      <c r="AD65">
-        <v>0.7522351505110664</v>
-      </c>
-      <c r="AE65">
-        <v>0.7612016716378839</v>
-      </c>
-      <c r="AF65">
-        <v>0.7238097637025404</v>
-      </c>
-      <c r="AG65">
-        <v>0.6814567653176136</v>
-      </c>
       <c r="AH65">
-        <v>0.6813833942440576</v>
+        <v>0.6836562909086685</v>
       </c>
       <c r="AI65">
-        <v>0.6813900936213189</v>
+        <v>0.7224342616463513</v>
       </c>
       <c r="AJ65">
-        <v>0.6814001271422558</v>
+        <v>0.7544194642723954</v>
       </c>
       <c r="AK65">
-        <v>0.8999999999999631</v>
+        <v>0.7753763375778754</v>
       </c>
       <c r="AL65">
-        <v>0.8999999999999915</v>
+        <v>0.7972516632283835</v>
       </c>
       <c r="AM65">
-        <v>0.4999999999999858</v>
+        <v>0.7908965094191777</v>
       </c>
       <c r="AN65">
-        <v>0.7999999999999829</v>
+        <v>0.7490236675545312</v>
       </c>
       <c r="AO65">
-        <v>1.000131837664966</v>
+        <v>0.7474470859584145</v>
       </c>
       <c r="AP65">
-        <v>0.9004047574160126</v>
+        <v>0.7261942260748914</v>
       </c>
       <c r="AQ65">
-        <v>0.8022776516546202</v>
+        <v>0.52082299434215</v>
       </c>
       <c r="AR65">
-        <v>0.4667440477391409</v>
+        <v>0.3629264220863746</v>
       </c>
       <c r="AS65">
         <v>0.3629264220863746</v>
@@ -9030,64 +8127,43 @@
       <c r="AZ65">
         <v>0.3629264220863746</v>
       </c>
-      <c r="BA65">
-        <v>0.3629264220863746</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>0.7622761851127208</v>
-      </c>
-      <c r="AD66">
-        <v>0.7523879154048386</v>
-      </c>
-      <c r="AE66">
-        <v>0.7612853824018956</v>
-      </c>
-      <c r="AF66">
-        <v>0.7239448728254789</v>
-      </c>
-      <c r="AG66">
-        <v>0.6807172134638082</v>
-      </c>
-      <c r="AH66">
-        <v>0.6806385160368096</v>
-      </c>
       <c r="AI66">
-        <v>0.6806454662801862</v>
+        <v>0.722443307278161</v>
       </c>
       <c r="AJ66">
-        <v>0.6806558782456342</v>
+        <v>0.7539492105212217</v>
       </c>
       <c r="AK66">
-        <v>0.9000000000000057</v>
+        <v>0.7745204173216101</v>
       </c>
       <c r="AL66">
-        <v>0.9000000000000057</v>
+        <v>0.7949638518151815</v>
       </c>
       <c r="AM66">
-        <v>0.4999999999999858</v>
+        <v>0.7898917390712847</v>
       </c>
       <c r="AN66">
-        <v>0.8000000000000682</v>
+        <v>0.7541517389310536</v>
       </c>
       <c r="AO66">
-        <v>1.000153323570615</v>
+        <v>0.7397793048064055</v>
       </c>
       <c r="AP66">
-        <v>0.8005430470243056</v>
+        <v>0.7334988971428535</v>
       </c>
       <c r="AQ66">
-        <v>0.9167187047088845</v>
+        <v>0.6552765904212374</v>
       </c>
       <c r="AR66">
-        <v>1.335031612109788</v>
+        <v>0.5882701406490688</v>
       </c>
       <c r="AS66">
-        <v>0.9642929337613708</v>
+        <v>0.3091193133532926</v>
       </c>
       <c r="AT66">
         <v>0.3091193133532926</v>
@@ -9110,67 +8186,43 @@
       <c r="AZ66">
         <v>0.3091193133532926</v>
       </c>
-      <c r="BA66">
-        <v>0.3091193133532926</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>0.762309537177389</v>
-      </c>
-      <c r="AD67">
-        <v>0.7524526737929009</v>
-      </c>
-      <c r="AE67">
-        <v>0.7613202727836154</v>
-      </c>
-      <c r="AF67">
-        <v>0.724001152685199</v>
-      </c>
-      <c r="AG67">
-        <v>0.6803836809987569</v>
-      </c>
-      <c r="AH67">
-        <v>0.6803018585577333</v>
-      </c>
-      <c r="AI67">
-        <v>0.6803089193228365</v>
-      </c>
       <c r="AJ67">
-        <v>0.6803194954353453</v>
+        <v>0.7537413839307561</v>
       </c>
       <c r="AK67">
-        <v>0.8095930159652442</v>
+        <v>0.774163494316473</v>
       </c>
       <c r="AL67">
-        <v>0.8095781495807338</v>
+        <v>0.7939565264362152</v>
       </c>
       <c r="AM67">
-        <v>0.6293733613469055</v>
+        <v>0.7894685028610364</v>
       </c>
       <c r="AN67">
-        <v>0.7551916184976417</v>
+        <v>0.7562386085493131</v>
       </c>
       <c r="AO67">
-        <v>0.9998040334883882</v>
+        <v>0.7362618904762432</v>
       </c>
       <c r="AP67">
-        <v>0.7992963585523114</v>
+        <v>0.7362708130986307</v>
       </c>
       <c r="AQ67">
-        <v>0.8329128001392689</v>
+        <v>0.6917596578899672</v>
       </c>
       <c r="AR67">
-        <v>1.16665999777301</v>
+        <v>0.6547697345222016</v>
       </c>
       <c r="AS67">
-        <v>1.337665384009014</v>
+        <v>0.5558460395074776</v>
       </c>
       <c r="AT67">
-        <v>0.6274244459322063</v>
+        <v>0.6338683484835599</v>
       </c>
       <c r="AU67">
         <v>0.6338683484835599</v>
@@ -9190,70 +8242,43 @@
       <c r="AZ67">
         <v>0.6338683484835599</v>
       </c>
-      <c r="BA67">
-        <v>0.6338683484835599</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>0.7623233053490113</v>
-      </c>
-      <c r="AD68">
-        <v>0.7524801254455253</v>
-      </c>
-      <c r="AE68">
-        <v>0.7613348149841633</v>
-      </c>
-      <c r="AF68">
-        <v>0.7240245917118994</v>
-      </c>
-      <c r="AG68">
-        <v>0.6802417807024732</v>
-      </c>
-      <c r="AH68">
-        <v>0.6801584447770971</v>
-      </c>
-      <c r="AI68">
-        <v>0.6801655513604755</v>
-      </c>
-      <c r="AJ68">
-        <v>0.6801761956391477</v>
-      </c>
       <c r="AK68">
-        <v>0.7751587058719623</v>
+        <v>0.7740146557189406</v>
       </c>
       <c r="AL68">
-        <v>0.7751388887744133</v>
+        <v>0.7935129975701539</v>
       </c>
       <c r="AM68">
-        <v>0.6755293959394673</v>
+        <v>0.7892902199023498</v>
       </c>
       <c r="AN68">
-        <v>0.7399491412505209</v>
+        <v>0.7570878857513205</v>
       </c>
       <c r="AO68">
-        <v>0.7999999999999545</v>
+        <v>0.7347435060334619</v>
       </c>
       <c r="AP68">
-        <v>0.8000000000000398</v>
+        <v>0.7376744419144294</v>
       </c>
       <c r="AQ68">
-        <v>0.8147481321371828</v>
+        <v>0.6993412878013403</v>
       </c>
       <c r="AR68">
-        <v>0.9823715259346955</v>
+        <v>0.6698717981514775</v>
       </c>
       <c r="AS68">
-        <v>1.000069783515329</v>
+        <v>0.6348570509428397</v>
       </c>
       <c r="AT68">
-        <v>0.5991952548525461</v>
+        <v>0.6584829794077808</v>
       </c>
       <c r="AU68">
-        <v>0.6014040468987218</v>
+        <v>0.2985013435050234</v>
       </c>
       <c r="AV68">
         <v>0.2985013435050234</v>
@@ -9270,61 +8295,43 @@
       <c r="AZ68">
         <v>0.2985013435050234</v>
       </c>
-      <c r="BA68">
-        <v>0.2985013435050234</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>0.6801799492599022</v>
-      </c>
-      <c r="AH69">
-        <v>0.6800958466055353</v>
-      </c>
-      <c r="AI69">
-        <v>0.6801029726463056</v>
-      </c>
-      <c r="AJ69">
-        <v>0.6801136456541319</v>
-      </c>
-      <c r="AK69">
-        <v>0.757663425510586</v>
-      </c>
       <c r="AL69">
-        <v>0.7576448494735869</v>
+        <v>0.7933177104699189</v>
       </c>
       <c r="AM69">
-        <v>0.6974038994556451</v>
+        <v>0.7892151207199165</v>
       </c>
       <c r="AN69">
-        <v>0.7333915876373092</v>
+        <v>0.7574335084721836</v>
       </c>
       <c r="AO69">
-        <v>0.4999999999999858</v>
+        <v>0.7340756922988131</v>
       </c>
       <c r="AP69">
-        <v>0.7999999999999545</v>
+        <v>0.738324723187109</v>
       </c>
       <c r="AQ69">
-        <v>0.8150039172876546</v>
+        <v>0.7005290033496665</v>
       </c>
       <c r="AR69">
-        <v>0.8995365693423025</v>
+        <v>0.6729191056718057</v>
       </c>
       <c r="AS69">
-        <v>0.9478928276026153</v>
+        <v>0.6565940997739648</v>
       </c>
       <c r="AT69">
-        <v>0.5995360311091531</v>
+        <v>0.6671120027134163</v>
       </c>
       <c r="AU69">
-        <v>0.6007414530330664</v>
+        <v>0.5778592892300984</v>
       </c>
       <c r="AV69">
-        <v>0.3999999999999773</v>
+        <v>0.2049602221247682</v>
       </c>
       <c r="AW69">
         <v>0.2049602221247682</v>
@@ -9338,64 +8345,43 @@
       <c r="AZ69">
         <v>0.2049602221247682</v>
       </c>
-      <c r="BA69">
-        <v>0.2049602221247682</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>0.6801532722635161</v>
-      </c>
-      <c r="AH70">
-        <v>0.6800687981707071</v>
-      </c>
-      <c r="AI70">
-        <v>0.6800759323828289</v>
-      </c>
-      <c r="AJ70">
-        <v>0.6800866174161275</v>
-      </c>
-      <c r="AK70">
-        <v>0.7493315819555688</v>
-      </c>
-      <c r="AL70">
-        <v>0.7493147384052511</v>
-      </c>
       <c r="AM70">
-        <v>0.7071372277853316</v>
+        <v>0.7891834862304815</v>
       </c>
       <c r="AN70">
-        <v>0.7306940138332971</v>
+        <v>0.7575741634935077</v>
       </c>
       <c r="AO70">
-        <v>0.4999999999999858</v>
+        <v>0.7337836824925225</v>
       </c>
       <c r="AP70">
-        <v>0.7999999999999972</v>
+        <v>0.7386337820851745</v>
       </c>
       <c r="AQ70">
-        <v>0.8189609930567201</v>
+        <v>0.7006303294966332</v>
       </c>
       <c r="AR70">
-        <v>0.907663990738655</v>
+        <v>0.6734919810664773</v>
       </c>
       <c r="AS70">
-        <v>0.7646891368533488</v>
+        <v>0.6624239000332203</v>
       </c>
       <c r="AT70">
-        <v>0.6001285167961328</v>
+        <v>0.6698939556267179</v>
       </c>
       <c r="AU70">
-        <v>0.6042290026468038</v>
+        <v>0.63708608812983</v>
       </c>
       <c r="AV70">
-        <v>0.7653360362291863</v>
+        <v>0.5583491040706722</v>
       </c>
       <c r="AW70">
-        <v>0.5000000000000142</v>
+        <v>0.6878071214384534</v>
       </c>
       <c r="AX70">
         <v>0.6878071214384534</v>
@@ -9406,67 +8392,43 @@
       <c r="AZ70">
         <v>0.6878071214384534</v>
       </c>
-      <c r="BA70">
-        <v>0.6878071214384534</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>0.6801417154763393</v>
-      </c>
-      <c r="AH71">
-        <v>0.6800570616632942</v>
-      </c>
-      <c r="AI71">
-        <v>0.6800641993189964</v>
-      </c>
-      <c r="AJ71">
-        <v>0.6800748893905105</v>
-      </c>
-      <c r="AK71">
-        <v>0.7453105550463406</v>
-      </c>
-      <c r="AL71">
-        <v>0.7452951888808971</v>
-      </c>
-      <c r="AM71">
-        <v>0.7115240679448179</v>
-      </c>
       <c r="AN71">
-        <v>0.7295755164134138</v>
+        <v>0.7576314046214303</v>
       </c>
       <c r="AO71">
-        <v>0.6693709532506137</v>
+        <v>0.7336557662441261</v>
       </c>
       <c r="AP71">
-        <v>0.7787783202705447</v>
+        <v>0.7387795709018795</v>
       </c>
       <c r="AQ71">
-        <v>0.7792046259982608</v>
+        <v>0.7006144141112435</v>
       </c>
       <c r="AR71">
-        <v>0.8054414059511817</v>
+        <v>0.6735944827974751</v>
       </c>
       <c r="AS71">
-        <v>0.5992590241756375</v>
+        <v>0.6639800496283347</v>
       </c>
       <c r="AT71">
-        <v>0.6003338857764078</v>
+        <v>0.6707927319044605</v>
       </c>
       <c r="AU71">
-        <v>0.5961215496492684</v>
+        <v>0.6719324413378442</v>
       </c>
       <c r="AV71">
-        <v>0.7635173704714617</v>
+        <v>0.6293520679731265</v>
       </c>
       <c r="AW71">
-        <v>0.7938925166093753</v>
+        <v>0.6388335232450542</v>
       </c>
       <c r="AX71">
-        <v>0.6755639417497861</v>
+        <v>0.5782185388409715</v>
       </c>
       <c r="AY71">
         <v>0.5782185388409715</v>
@@ -9474,716 +8436,299 @@
       <c r="AZ71">
         <v>0.5782185388409715</v>
       </c>
-      <c r="BA71">
-        <v>0.5782185388409715</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>0.6801367173750925</v>
-      </c>
-      <c r="AH72">
-        <v>0.6800519779279625</v>
-      </c>
-      <c r="AI72">
-        <v>0.6800591170309909</v>
-      </c>
-      <c r="AJ72">
-        <v>0.6800698092092703</v>
-      </c>
-      <c r="AK72">
-        <v>0.7433753732022953</v>
-      </c>
-      <c r="AL72">
-        <v>0.7433610147394778</v>
-      </c>
-      <c r="AM72">
-        <v>0.7134959810518545</v>
-      </c>
-      <c r="AN72">
-        <v>0.7291124080430136</v>
-      </c>
       <c r="AO72">
-        <v>0.7105187181043501</v>
+        <v>0.7335997634760294</v>
       </c>
       <c r="AP72">
-        <v>0.7744957560695077</v>
+        <v>0.738848492852589</v>
       </c>
       <c r="AQ72">
-        <v>0.7720804744768306</v>
+        <v>0.7006038429315511</v>
       </c>
       <c r="AR72">
-        <v>0.78233617075607</v>
+        <v>0.6736121333353637</v>
       </c>
       <c r="AS72">
-        <v>0.5173281499470761</v>
+        <v>0.6643950611241473</v>
       </c>
       <c r="AT72">
-        <v>0.5999999999999943</v>
+        <v>0.6710830870687691</v>
       </c>
       <c r="AU72">
-        <v>0.5999999999999517</v>
+        <v>0.6857477489505563</v>
       </c>
       <c r="AV72">
-        <v>0.6821893228890588</v>
+        <v>0.6738977306402784</v>
       </c>
       <c r="AW72">
-        <v>0.7999999999999972</v>
+        <v>0.6819170877768763</v>
       </c>
       <c r="AX72">
-        <v>0.5845992779903213</v>
+        <v>0.6688195969283554</v>
       </c>
       <c r="AY72">
-        <v>0.5847826431909766</v>
+        <v>0.5490590963348296</v>
       </c>
       <c r="AZ72">
         <v>0.5490590963348296</v>
       </c>
-      <c r="BA72">
-        <v>0.5490590963348296</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>0.7424434943166942</v>
-      </c>
-      <c r="AL73">
-        <v>0.7424297654245076</v>
-      </c>
-      <c r="AM73">
-        <v>0.7143828555654204</v>
-      </c>
-      <c r="AN73">
-        <v>0.7289206118904771</v>
-      </c>
-      <c r="AO73">
-        <v>0.7322601182373205</v>
-      </c>
       <c r="AP73">
-        <v>0.7714159496640784</v>
+        <v>0.7388810550023576</v>
       </c>
       <c r="AQ73">
-        <v>0.7663030603422143</v>
+        <v>0.7006005998479428</v>
       </c>
       <c r="AR73">
-        <v>0.7721371168233681</v>
+        <v>0.673615076545205</v>
       </c>
       <c r="AS73">
-        <v>0.4179220328589111</v>
+        <v>0.664505722250368</v>
       </c>
       <c r="AT73">
-        <v>0.5999999999999943</v>
+        <v>0.6711768882120424</v>
       </c>
       <c r="AU73">
-        <v>0.6000000000000512</v>
+        <v>0.6919478484200682</v>
       </c>
       <c r="AV73">
-        <v>0.5822038621785168</v>
+        <v>0.6895837381560084</v>
       </c>
       <c r="AW73">
-        <v>0.5999999999999801</v>
+        <v>0.6867027392853161</v>
       </c>
       <c r="AX73">
-        <v>0.5538366934973169</v>
+        <v>0.6800650362547974</v>
       </c>
       <c r="AY73">
-        <v>0.5999999999999943</v>
+        <v>0.6290072790053428</v>
       </c>
       <c r="AZ73">
-        <v>0.7337840715673707</v>
-      </c>
-      <c r="BA73">
         <v>0.7477535645244302</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>0.7419948064667886</v>
-      </c>
-      <c r="AL74">
-        <v>0.7419814500048392</v>
-      </c>
-      <c r="AM74">
-        <v>0.7147816850790114</v>
-      </c>
-      <c r="AN74">
-        <v>0.7288411831689139</v>
-      </c>
-      <c r="AO74">
-        <v>0.7403954040232452</v>
-      </c>
-      <c r="AP74">
-        <v>0.7703473335849494</v>
-      </c>
       <c r="AQ74">
-        <v>0.7644114265609649</v>
+        <v>0.7005998632020265</v>
       </c>
       <c r="AR74">
-        <v>0.7686880590030571</v>
+        <v>0.6736155533872064</v>
       </c>
       <c r="AS74">
-        <v>0.4179144891355122</v>
+        <v>0.6645352286365116</v>
       </c>
       <c r="AT74">
-        <v>0.6000000000000227</v>
+        <v>0.6712071912864541</v>
       </c>
       <c r="AU74">
-        <v>0.5999999999999943</v>
+        <v>0.6946144004261491</v>
       </c>
       <c r="AV74">
-        <v>0.5822184066128955</v>
+        <v>0.6966972767264372</v>
       </c>
       <c r="AW74">
-        <v>0.5999999999999943</v>
+        <v>0.6927461389097858</v>
       </c>
       <c r="AX74">
-        <v>0.4693021516667102</v>
+        <v>0.6918151686264097</v>
       </c>
       <c r="AY74">
-        <v>0.5999999999999801</v>
+        <v>0.6481959786662248</v>
       </c>
       <c r="AZ74">
-        <v>0.7198237150127369</v>
-      </c>
-      <c r="BA74">
-        <v>0.7499924531742437</v>
+        <v>0.6930383783247316</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>0.7417787634708277</v>
-      </c>
-      <c r="AL75">
-        <v>0.7417656197170333</v>
-      </c>
-      <c r="AM75">
-        <v>0.714961043837544</v>
-      </c>
-      <c r="AN75">
-        <v>0.7288082890126888</v>
-      </c>
-      <c r="AO75">
-        <v>0.743879452425922</v>
-      </c>
-      <c r="AP75">
-        <v>0.7698101484204162</v>
-      </c>
-      <c r="AQ75">
-        <v>0.7634089160567334</v>
-      </c>
       <c r="AR75">
-        <v>0.7674075928039671</v>
+        <v>0.6736156285571165</v>
       </c>
       <c r="AS75">
-        <v>0.627126239162589</v>
+        <v>0.6645430960919799</v>
       </c>
       <c r="AT75">
-        <v>0.6534817013983022</v>
+        <v>0.6712169808933571</v>
       </c>
       <c r="AU75">
-        <v>0.6536743141613158</v>
+        <v>0.695777670256897</v>
       </c>
       <c r="AV75">
-        <v>0.6456046685291478</v>
+        <v>0.699555888000445</v>
       </c>
       <c r="AW75">
-        <v>0.5999999999999943</v>
+        <v>0.6947413589701934</v>
       </c>
       <c r="AX75">
-        <v>0.3270154107631669</v>
+        <v>0.6958032881870447</v>
       </c>
       <c r="AY75">
-        <v>0.7695909397203309</v>
+        <v>0.660682203034605</v>
       </c>
       <c r="AZ75">
-        <v>0.8753955642378344</v>
-      </c>
-      <c r="BA75">
-        <v>0.9501165076806046</v>
+        <v>0.6908677700955443</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>0.7416747394191767</v>
-      </c>
-      <c r="AL76">
-        <v>0.7416617141527924</v>
-      </c>
-      <c r="AM76">
-        <v>0.7150417033856068</v>
-      </c>
-      <c r="AN76">
-        <v>0.7287946664346522</v>
-      </c>
-      <c r="AO76">
-        <v>0.7452900123298032</v>
-      </c>
-      <c r="AP76">
-        <v>0.7695901783985987</v>
-      </c>
-      <c r="AQ76">
-        <v>0.7630077741540323</v>
-      </c>
-      <c r="AR76">
-        <v>0.7669483521192445</v>
-      </c>
       <c r="AS76">
-        <v>0.7001243812492352</v>
+        <v>0.6645451938339098</v>
       </c>
       <c r="AT76">
-        <v>0.6703006861223076</v>
+        <v>0.671220143490063</v>
       </c>
       <c r="AU76">
-        <v>0.670535213396584</v>
+        <v>0.6962827106319973</v>
       </c>
       <c r="AV76">
-        <v>0.6656082747116477</v>
+        <v>0.7007705376052499</v>
       </c>
       <c r="AW76">
-        <v>0.5999999999999801</v>
+        <v>0.6959070817168829</v>
       </c>
       <c r="AX76">
-        <v>0.3270445095759413</v>
+        <v>0.6979452061318856</v>
       </c>
       <c r="AY76">
-        <v>0.7696421168766392</v>
+        <v>0.6658310662975354</v>
       </c>
       <c r="AZ76">
-        <v>0.9605703352304999</v>
-      </c>
-      <c r="BA76">
-        <v>0.9502405619005856</v>
+        <v>0.6862619475623193</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.7458742963352484</v>
-      </c>
-      <c r="AP77">
-        <v>0.7694897051106782</v>
-      </c>
-      <c r="AQ77">
-        <v>0.762819945568381</v>
-      </c>
-      <c r="AR77">
-        <v>0.7667815665732566</v>
-      </c>
-      <c r="AS77">
-        <v>0.7163614029172847</v>
-      </c>
       <c r="AT77">
-        <v>0.6771134546675861</v>
+        <v>0.6712211651876678</v>
       </c>
       <c r="AU77">
-        <v>0.6773458760106599</v>
+        <v>0.6965023311597379</v>
       </c>
       <c r="AV77">
-        <v>0.6736657741600142</v>
+        <v>0.7012733109664238</v>
       </c>
       <c r="AW77">
-        <v>0.5999999999999943</v>
+        <v>0.696413724878216</v>
       </c>
       <c r="AX77">
-        <v>0.2847157187992622</v>
+        <v>0.6988647887185511</v>
       </c>
       <c r="AY77">
-        <v>0.7696932232956755</v>
+        <v>0.668368801578586</v>
       </c>
       <c r="AZ77">
-        <v>0.9607739728338913</v>
-      </c>
-      <c r="BA77">
-        <v>1.033576574201604</v>
+        <v>0.6847148642195721</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.7461140581337119</v>
-      </c>
-      <c r="AP78">
-        <v>0.7694464642225948</v>
-      </c>
-      <c r="AQ78">
-        <v>0.7627395908939208</v>
-      </c>
-      <c r="AR78">
-        <v>0.7667212710763667</v>
-      </c>
-      <c r="AS78">
-        <v>0.7188050917751976</v>
-      </c>
-      <c r="AT78">
-        <v>0.6797350585408596</v>
-      </c>
       <c r="AU78">
-        <v>0.6799609594210481</v>
+        <v>0.6965977828604043</v>
       </c>
       <c r="AV78">
-        <v>0.6767591699606418</v>
+        <v>0.701483975849149</v>
       </c>
       <c r="AW78">
-        <v>0.5999999999999943</v>
+        <v>0.6966678350226587</v>
       </c>
       <c r="AX78">
-        <v>0.2847286302270362</v>
+        <v>0.6993022891691371</v>
       </c>
       <c r="AY78">
-        <v>0.769744259023426</v>
+        <v>0.6695284682503254</v>
       </c>
       <c r="AZ78">
-        <v>1.045733629055803</v>
-      </c>
-      <c r="BA78">
-        <v>1.033631881839852</v>
+        <v>0.6839152935997319</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.7462128232632047</v>
-      </c>
-      <c r="AP79">
-        <v>0.7694272485716004</v>
-      </c>
-      <c r="AQ79">
-        <v>0.7627034107684174</v>
-      </c>
-      <c r="AR79">
-        <v>0.7666994368478309</v>
-      </c>
-      <c r="AS79">
-        <v>0.7189411336748319</v>
-      </c>
-      <c r="AT79">
-        <v>0.6807535765230132</v>
-      </c>
-      <c r="AU79">
-        <v>0.6809745655057001</v>
-      </c>
       <c r="AV79">
-        <v>0.6779571714099114</v>
+        <v>0.7015717435158065</v>
       </c>
       <c r="AW79">
-        <v>0.6307422410882125</v>
+        <v>0.6967864218229669</v>
       </c>
       <c r="AX79">
-        <v>0.4852965577767114</v>
+        <v>0.6995005516887286</v>
       </c>
       <c r="AY79">
-        <v>0.6946610288186121</v>
+        <v>0.67007515573944</v>
       </c>
       <c r="AZ79">
-        <v>0.8119007059890446</v>
-      </c>
-      <c r="BA79">
-        <v>1.067374524280623</v>
+        <v>0.6835622237039428</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.7462534436392771</v>
-      </c>
-      <c r="AP80">
-        <v>0.7694188564053303</v>
-      </c>
-      <c r="AQ80">
-        <v>0.7626875894172022</v>
-      </c>
-      <c r="AR80">
-        <v>0.7666915350564457</v>
-      </c>
-      <c r="AS80">
-        <v>0.7188807512452369</v>
-      </c>
-      <c r="AT80">
-        <v>0.6811485619517442</v>
-      </c>
-      <c r="AU80">
-        <v>0.6813667415591032</v>
-      </c>
-      <c r="AV80">
-        <v>0.6784203842816042</v>
-      </c>
       <c r="AW80">
-        <v>0.6398347558919427</v>
+        <v>0.696843770732127</v>
       </c>
       <c r="AX80">
-        <v>0.549067121405547</v>
+        <v>0.6995924625900706</v>
       </c>
       <c r="AY80">
-        <v>0.6731958829391651</v>
+        <v>0.6703295505422577</v>
       </c>
       <c r="AZ80">
-        <v>0.7446126483714166</v>
-      </c>
-      <c r="BA80">
-        <v>1.067596262336991</v>
+        <v>0.6833979113797244</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>0.7188536786273515</v>
-      </c>
-      <c r="AT81">
-        <v>0.6813017915929638</v>
-      </c>
-      <c r="AU81">
-        <v>0.6815185298305464</v>
-      </c>
-      <c r="AV81">
-        <v>0.6785995407106266</v>
-      </c>
-      <c r="AW81">
-        <v>0.6435584345331609</v>
-      </c>
       <c r="AX81">
-        <v>0.582314822672632</v>
+        <v>0.6996346182238261</v>
       </c>
       <c r="AY81">
-        <v>0.6632976680356719</v>
+        <v>0.6704485692467337</v>
       </c>
       <c r="AZ81">
-        <v>0.709137522969256</v>
-      </c>
-      <c r="BA81">
-        <v>1.233909290684949</v>
+        <v>0.6833228178374714</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>0.7188468974178744</v>
-      </c>
-      <c r="AT82">
-        <v>0.6813612312399929</v>
-      </c>
-      <c r="AU82">
-        <v>0.6815772744365962</v>
-      </c>
-      <c r="AV82">
-        <v>0.6786688291094076</v>
-      </c>
-      <c r="AW82">
-        <v>0.6449657192450987</v>
-      </c>
-      <c r="AX82">
-        <v>0.5970102740118722</v>
-      </c>
       <c r="AY82">
-        <v>0.6593923913481535</v>
+        <v>0.6705041277337995</v>
       </c>
       <c r="AZ82">
-        <v>0.6939274848237065</v>
-      </c>
-      <c r="BA82">
-        <v>1.233964924396787</v>
+        <v>0.6832882855651934</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>0.718845726154611</v>
-      </c>
-      <c r="AT83">
-        <v>0.6813842888883188</v>
-      </c>
-      <c r="AU83">
-        <v>0.6816000098538637</v>
-      </c>
-      <c r="AV83">
-        <v>0.678695626530778</v>
-      </c>
-      <c r="AW83">
-        <v>0.6455072414505585</v>
-      </c>
-      <c r="AX83">
-        <v>0.6038329903558026</v>
-      </c>
-      <c r="AY83">
-        <v>0.6577799968657561</v>
-      </c>
       <c r="AZ83">
-        <v>0.6869928491928474</v>
-      </c>
-      <c r="BA83">
-        <v>0.9781590973900186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>0.718845616761802</v>
-      </c>
-      <c r="AT84">
-        <v>0.6813932333207396</v>
-      </c>
-      <c r="AU84">
-        <v>0.6816088089262892</v>
-      </c>
-      <c r="AV84">
-        <v>0.6787059904658711</v>
-      </c>
-      <c r="AW84">
-        <v>0.6457147579635641</v>
-      </c>
-      <c r="AX84">
-        <v>0.6069527010651751</v>
-      </c>
-      <c r="AY84">
-        <v>0.6571233673208163</v>
-      </c>
-      <c r="AZ84">
-        <v>0.6838913099404069</v>
-      </c>
-      <c r="BA84">
-        <v>0.8883115102090845</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.6457943555625606</v>
-      </c>
-      <c r="AX85">
-        <v>0.6083858723421137</v>
-      </c>
-      <c r="AY85">
-        <v>0.6568548596086456</v>
-      </c>
-      <c r="AZ85">
-        <v>0.6824959080927077</v>
-      </c>
-      <c r="BA85">
-        <v>0.824469762135325</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.6458248803918073</v>
-      </c>
-      <c r="AX86">
-        <v>0.609043316447034</v>
-      </c>
-      <c r="AY86">
-        <v>0.6567451975745294</v>
-      </c>
-      <c r="AZ86">
-        <v>0.6818692557251624</v>
-      </c>
-      <c r="BA86">
-        <v>0.790706197022493</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.6458365869177012</v>
-      </c>
-      <c r="AX87">
-        <v>0.6093450411598498</v>
-      </c>
-      <c r="AY87">
-        <v>0.6567003935625644</v>
-      </c>
-      <c r="AZ87">
-        <v>0.6815876771713503</v>
-      </c>
-      <c r="BA87">
-        <v>0.7707897696551067</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.6458410764168701</v>
-      </c>
-      <c r="AX88">
-        <v>0.609483494732574</v>
-      </c>
-      <c r="AY88">
-        <v>0.656682090272358</v>
-      </c>
-      <c r="AZ88">
-        <v>0.6814611754067842</v>
-      </c>
-      <c r="BA88">
-        <v>0.7595330624988865</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>0.75306563731645</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>0.7493733262937493</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>0.747260195158102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>0.7460519779591392</v>
+        <v>0.6832724393556652</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_OPA_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_OPA_AR2_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9074,7 +9074,7 @@
         <v>0.8647438914134785</v>
       </c>
       <c r="AG64">
-        <v>0.798184409453512</v>
+        <v>1.907840890483545</v>
       </c>
       <c r="AH64">
         <v>1.879044851730669</v>
@@ -9166,10 +9166,10 @@
         <v>0.6396689142681529</v>
       </c>
       <c r="AG65">
-        <v>0.5108830792502574</v>
+        <v>0.4047405883416616</v>
       </c>
       <c r="AH65">
-        <v>0.7972078981263451</v>
+        <v>0.3376511811442843</v>
       </c>
       <c r="AI65">
         <v>0.5891195155317774</v>
@@ -9255,13 +9255,13 @@
         <v>0.6705784251865714</v>
       </c>
       <c r="AG66">
-        <v>0.5179557374326755</v>
+        <v>0.2617685360516991</v>
       </c>
       <c r="AH66">
-        <v>0.1086133857180563</v>
+        <v>0.2736889577542529</v>
       </c>
       <c r="AI66">
-        <v>0.7006632596227007</v>
+        <v>0.1464383348247046</v>
       </c>
       <c r="AJ66">
         <v>-1.620076036519961</v>
@@ -9341,16 +9341,16 @@
         <v>0.7082427515023715</v>
       </c>
       <c r="AG67">
-        <v>0.5748420668473586</v>
+        <v>0.700305150971246</v>
       </c>
       <c r="AH67">
-        <v>0.5817367719244384</v>
+        <v>0.6940361753326874</v>
       </c>
       <c r="AI67">
-        <v>0.6431924297547976</v>
+        <v>0.6351484541528813</v>
       </c>
       <c r="AJ67">
-        <v>0.7005260309296233</v>
+        <v>0.9530738328198461</v>
       </c>
       <c r="AK67">
         <v>1.285713798234809</v>
@@ -9424,19 +9424,19 @@
         <v>0.69511069957617</v>
       </c>
       <c r="AG68">
-        <v>0.5635259101186207</v>
+        <v>0.674679332772379</v>
       </c>
       <c r="AH68">
-        <v>0.6951908801882514</v>
+        <v>0.6349511811251515</v>
       </c>
       <c r="AI68">
-        <v>0.6286791341623643</v>
+        <v>0.668580389483956</v>
       </c>
       <c r="AJ68">
-        <v>0.9351384857449048</v>
+        <v>0.9202943458063948</v>
       </c>
       <c r="AK68">
-        <v>1.501866008463963</v>
+        <v>1.080220240679441</v>
       </c>
       <c r="AL68">
         <v>0.9260365910423758</v>
@@ -9504,22 +9504,22 @@
         <v>0.6903196393179974</v>
       </c>
       <c r="AG69">
-        <v>0.5539854083570279</v>
+        <v>0.5567632372397038</v>
       </c>
       <c r="AH69">
-        <v>0.5269301383631968</v>
+        <v>0.5341651394089945</v>
       </c>
       <c r="AI69">
-        <v>0.6424234472521027</v>
+        <v>0.511560084637849</v>
       </c>
       <c r="AJ69">
-        <v>0.5595431373507989</v>
+        <v>0.5098229606405373</v>
       </c>
       <c r="AK69">
-        <v>0.412845889444804</v>
+        <v>0.4301082474274722</v>
       </c>
       <c r="AL69">
-        <v>1.500711092634546</v>
+        <v>0.5014757495928501</v>
       </c>
       <c r="AM69">
         <v>1.323876910632023</v>
@@ -9581,25 +9581,25 @@
         <v>0.6937696343717771</v>
       </c>
       <c r="AG70">
-        <v>0.5579323569498796</v>
+        <v>0.58143843152033</v>
       </c>
       <c r="AH70">
-        <v>0.5268346747711172</v>
+        <v>0.5680682385906619</v>
       </c>
       <c r="AI70">
-        <v>0.6434218170384567</v>
+        <v>0.5342150515664706</v>
       </c>
       <c r="AJ70">
-        <v>0.5372509932753966</v>
+        <v>0.5632633950528074</v>
       </c>
       <c r="AK70">
-        <v>0.4528266143015921</v>
+        <v>0.5079690927407332</v>
       </c>
       <c r="AL70">
-        <v>0.5081728482805297</v>
+        <v>0.5285985313517909</v>
       </c>
       <c r="AM70">
-        <v>1.397766293286139</v>
+        <v>0.5087510722370476</v>
       </c>
       <c r="AN70">
         <v>-2.136777872354216</v>
@@ -9655,28 +9655,28 @@
         <v>0.6940410965464023</v>
       </c>
       <c r="AG71">
-        <v>0.5591763259604414</v>
+        <v>0.6104955819296962</v>
       </c>
       <c r="AH71">
-        <v>0.5783851512123983</v>
+        <v>0.5886629282818772</v>
       </c>
       <c r="AI71">
-        <v>0.6404859795915383</v>
+        <v>0.5776638555695962</v>
       </c>
       <c r="AJ71">
-        <v>0.5974263073853776</v>
+        <v>0.623085333230446</v>
       </c>
       <c r="AK71">
-        <v>0.6177695850444613</v>
+        <v>0.6129024188163954</v>
       </c>
       <c r="AL71">
-        <v>0.4946429668463523</v>
+        <v>0.5724866461570688</v>
       </c>
       <c r="AM71">
-        <v>0.5298078997739227</v>
+        <v>0.5126804932569142</v>
       </c>
       <c r="AN71">
-        <v>0.9013714134183743</v>
+        <v>0.7363062067010404</v>
       </c>
       <c r="AO71">
         <v>0.7934051314956321</v>
@@ -9726,31 +9726,31 @@
         <v>0.6933222281330501</v>
       </c>
       <c r="AG72">
-        <v>0.5581617637733658</v>
+        <v>0.5993184252491496</v>
       </c>
       <c r="AH72">
-        <v>0.5677984222425216</v>
+        <v>0.575945958570756</v>
       </c>
       <c r="AI72">
-        <v>0.6406999784033816</v>
+        <v>0.5616013936591859</v>
       </c>
       <c r="AJ72">
-        <v>0.598582853843058</v>
+        <v>0.6074614114132076</v>
       </c>
       <c r="AK72">
-        <v>0.6005204881905278</v>
+        <v>0.5927667668579698</v>
       </c>
       <c r="AL72">
-        <v>0.5925365388118066</v>
+        <v>0.5673513051817265</v>
       </c>
       <c r="AM72">
-        <v>0.5573781185193705</v>
+        <v>0.5946929159140915</v>
       </c>
       <c r="AN72">
-        <v>0.801733000963629</v>
+        <v>0.8195672252159997</v>
       </c>
       <c r="AO72">
-        <v>0.4038529775848758</v>
+        <v>0.6376246159233363</v>
       </c>
       <c r="AP72">
         <v>1.029975481959951</v>
@@ -9794,34 +9794,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>0.5580864402820125</v>
+        <v>0.5929171617253438</v>
       </c>
       <c r="AH73">
-        <v>0.5541909543127659</v>
+        <v>0.5727849839594703</v>
       </c>
       <c r="AI73">
-        <v>0.6412664047046654</v>
+        <v>0.5516318512173263</v>
       </c>
       <c r="AJ73">
-        <v>0.5890368085277849</v>
+        <v>0.5996623635128419</v>
       </c>
       <c r="AK73">
-        <v>0.5762911667560568</v>
+        <v>0.5763309910048049</v>
       </c>
       <c r="AL73">
-        <v>0.5896404932492709</v>
+        <v>0.562933622182832</v>
       </c>
       <c r="AM73">
-        <v>0.6204468284927879</v>
+        <v>0.5900087714286504</v>
       </c>
       <c r="AN73">
-        <v>0.4894856290231731</v>
+        <v>0.5013569936110157</v>
       </c>
       <c r="AO73">
-        <v>0.5675549983572453</v>
+        <v>0.5703985497378656</v>
       </c>
       <c r="AP73">
-        <v>0.9991743200616696</v>
+        <v>0.5361159675144066</v>
       </c>
       <c r="AQ73">
         <v>0.7043810499788776</v>
@@ -9861,38 +9861,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>0.5583047556327219</v>
-      </c>
       <c r="AH74">
-        <v>0.5602354330139333</v>
+        <v>0.5767293782019532</v>
       </c>
       <c r="AI74">
-        <v>0.6411424561701036</v>
+        <v>0.5586522678142858</v>
       </c>
       <c r="AJ74">
-        <v>0.5892290687674415</v>
+        <v>0.6030931571074686</v>
       </c>
       <c r="AK74">
-        <v>0.5805760956613747</v>
+        <v>0.5808294634176092</v>
       </c>
       <c r="AL74">
-        <v>0.580167774880706</v>
+        <v>0.5637070222971743</v>
       </c>
       <c r="AM74">
-        <v>0.6160101956125494</v>
+        <v>0.5819814669626538</v>
       </c>
       <c r="AN74">
-        <v>0.5352704886290853</v>
+        <v>0.524772818191741</v>
       </c>
       <c r="AO74">
-        <v>0.5819126343665193</v>
+        <v>0.5884785773574148</v>
       </c>
       <c r="AP74">
-        <v>0.5227472208915984</v>
+        <v>0.5511605854900903</v>
       </c>
       <c r="AQ74">
-        <v>0.6350385067502629</v>
+        <v>0.5357850523769725</v>
       </c>
       <c r="AR74">
         <v>0.1406555772994125</v>
@@ -9929,38 +9926,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>0.5631580380254523</v>
-      </c>
       <c r="AI75">
-        <v>0.6410449122819589</v>
+        <v>0.5602407344686899</v>
       </c>
       <c r="AJ75">
-        <v>0.5907286725729384</v>
+        <v>0.6039463761463848</v>
       </c>
       <c r="AK75">
-        <v>0.5840174762468184</v>
+        <v>0.5833147449381721</v>
       </c>
       <c r="AL75">
-        <v>0.580860303349661</v>
+        <v>0.5641385882278932</v>
       </c>
       <c r="AM75">
-        <v>0.6115200102589335</v>
+        <v>0.5828736206851565</v>
       </c>
       <c r="AN75">
-        <v>0.5633575990600036</v>
+        <v>0.5566941014318239</v>
       </c>
       <c r="AO75">
-        <v>0.5701229786366688</v>
+        <v>0.5929128717292284</v>
       </c>
       <c r="AP75">
-        <v>0.558197989566984</v>
+        <v>0.5877837054922964</v>
       </c>
       <c r="AQ75">
-        <v>0.5045073794426627</v>
+        <v>0.5730651483874575</v>
       </c>
       <c r="AR75">
-        <v>0.2134433935270721</v>
+        <v>0.5423721697913545</v>
       </c>
       <c r="AS75">
         <v>0.4268111723034735</v>
@@ -9994,38 +9988,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.641083962888253</v>
-      </c>
       <c r="AJ76">
-        <v>0.590639430881322</v>
+        <v>0.6032938525262133</v>
       </c>
       <c r="AK76">
-        <v>0.5831264150786459</v>
+        <v>0.5823883476392575</v>
       </c>
       <c r="AL76">
-        <v>0.5817591517313969</v>
+        <v>0.5640340580564109</v>
       </c>
       <c r="AM76">
-        <v>0.6120186191477519</v>
+        <v>0.5836366527674757</v>
       </c>
       <c r="AN76">
-        <v>0.5553187148352858</v>
+        <v>0.5509203532462019</v>
       </c>
       <c r="AO76">
-        <v>0.5699922734276366</v>
+        <v>0.5910553738174132</v>
       </c>
       <c r="AP76">
-        <v>0.5906778059567476</v>
+        <v>0.5841849414369448</v>
       </c>
       <c r="AQ76">
-        <v>0.5262257026139421</v>
+        <v>0.5829925801037593</v>
       </c>
       <c r="AR76">
-        <v>0.6068945402684597</v>
+        <v>0.5815592346908567</v>
       </c>
       <c r="AS76">
-        <v>0.3629264220863746</v>
+        <v>0.8409012018944424</v>
       </c>
       <c r="AT76">
         <v>0.3049656067824742</v>
@@ -10056,38 +10047,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>0.5904061740575867</v>
-      </c>
       <c r="AK77">
-        <v>0.5826566224525249</v>
+        <v>0.5820288502740475</v>
       </c>
       <c r="AL77">
-        <v>0.581652484299529</v>
+        <v>0.5639933790511561</v>
       </c>
       <c r="AM77">
-        <v>0.6123313445802895</v>
+        <v>0.5835067723562536</v>
       </c>
       <c r="AN77">
-        <v>0.553233899803502</v>
+        <v>0.5480667895769089</v>
       </c>
       <c r="AO77">
-        <v>0.5707788200139301</v>
+        <v>0.5908104399135811</v>
       </c>
       <c r="AP77">
-        <v>0.5858144484681027</v>
+        <v>0.5816353592477024</v>
       </c>
       <c r="AQ77">
-        <v>0.541796724764055</v>
+        <v>0.579476804327213</v>
       </c>
       <c r="AR77">
-        <v>0.5551669526092151</v>
+        <v>0.5213690973829014</v>
       </c>
       <c r="AS77">
-        <v>0.4861056264551553</v>
+        <v>0.4674891529630646</v>
       </c>
       <c r="AT77">
-        <v>0.3091193133532926</v>
+        <v>0.5721228164370803</v>
       </c>
       <c r="AU77">
         <v>0.7386451510207621</v>
@@ -10115,38 +10103,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.5828253836042256</v>
-      </c>
       <c r="AL78">
-        <v>0.5815689608099559</v>
+        <v>0.5640066049473772</v>
       </c>
       <c r="AM78">
-        <v>0.6122826111345839</v>
+        <v>0.5834365993969547</v>
       </c>
       <c r="AN78">
-        <v>0.5543246665325531</v>
+        <v>0.5489797075560618</v>
       </c>
       <c r="AO78">
-        <v>0.570732990594081</v>
+        <v>0.5909862097857697</v>
       </c>
       <c r="AP78">
-        <v>0.5837706215994358</v>
+        <v>0.5820803027332845</v>
       </c>
       <c r="AQ78">
-        <v>0.5373901727549648</v>
+        <v>0.578988226769661</v>
       </c>
       <c r="AR78">
-        <v>0.5042642124973951</v>
+        <v>0.521675944335704</v>
       </c>
       <c r="AS78">
-        <v>0.4867588298961951</v>
+        <v>0.4390823763891646</v>
       </c>
       <c r="AT78">
-        <v>0.4707333364322573</v>
+        <v>0.4804142740292103</v>
       </c>
       <c r="AU78">
-        <v>0.6338683484835599</v>
+        <v>0.4384835416658344</v>
       </c>
       <c r="AV78">
         <v>-1.147231087866345</v>
@@ -10171,38 +10156,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.5815830213464925</v>
-      </c>
       <c r="AM79">
-        <v>0.6122613639360827</v>
+        <v>0.5834533686230848</v>
       </c>
       <c r="AN79">
-        <v>0.5544237563447955</v>
+        <v>0.5491944085110412</v>
       </c>
       <c r="AO79">
-        <v>0.570684292370354</v>
+        <v>0.5909945058862032</v>
       </c>
       <c r="AP79">
-        <v>0.5842697733962727</v>
+        <v>0.5822447780135481</v>
       </c>
       <c r="AQ79">
-        <v>0.5357045691594353</v>
+        <v>0.5792872551241501</v>
       </c>
       <c r="AR79">
-        <v>0.5170143986781717</v>
+        <v>0.5300980576790979</v>
       </c>
       <c r="AS79">
-        <v>0.4604964750810547</v>
+        <v>0.5025786860486879</v>
       </c>
       <c r="AT79">
-        <v>0.4544852797040047</v>
+        <v>0.4316270007131311</v>
       </c>
       <c r="AU79">
-        <v>0.4086859463539281</v>
+        <v>0.3771942078005428</v>
       </c>
       <c r="AV79">
-        <v>0.2985013435050234</v>
+        <v>0.4829965068243389</v>
       </c>
       <c r="AW79">
         <v>0.5563279776301044</v>
@@ -10224,38 +10206,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.6122657724978926</v>
-      </c>
       <c r="AN80">
-        <v>0.5542964592606446</v>
+        <v>0.5490741355397969</v>
       </c>
       <c r="AO80">
-        <v>0.5706906858667858</v>
+        <v>0.5909789376065392</v>
       </c>
       <c r="AP80">
-        <v>0.5843849292771749</v>
+        <v>0.5821998608688427</v>
       </c>
       <c r="AQ80">
-        <v>0.5364591579301585</v>
+        <v>0.5793021430544599</v>
       </c>
       <c r="AR80">
-        <v>0.5229639555810813</v>
+        <v>0.5292420922154365</v>
       </c>
       <c r="AS80">
-        <v>0.4631146783123761</v>
+        <v>0.5005976474096633</v>
       </c>
       <c r="AT80">
-        <v>0.4232168074890279</v>
+        <v>0.4541978851477499</v>
       </c>
       <c r="AU80">
-        <v>0.4385666203987472</v>
+        <v>0.4456620557694132</v>
       </c>
       <c r="AV80">
-        <v>0.7247335113163831</v>
+        <v>0.7069468366582087</v>
       </c>
       <c r="AW80">
-        <v>0.2049602221247682</v>
+        <v>0.2900565127538718</v>
       </c>
       <c r="AX80">
         <v>0.6119095091543301</v>
@@ -10274,38 +10253,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>0.5543002498550955</v>
-      </c>
       <c r="AO81">
-        <v>0.5706934548002545</v>
+        <v>0.59097934427844</v>
       </c>
       <c r="AP81">
-        <v>0.5843402901103955</v>
+        <v>0.5821903361713483</v>
       </c>
       <c r="AQ81">
-        <v>0.5366153577169114</v>
+        <v>0.5792786478131871</v>
       </c>
       <c r="AR81">
-        <v>0.520513809974114</v>
+        <v>0.5281420982068131</v>
       </c>
       <c r="AS81">
-        <v>0.4684244414192085</v>
+        <v>0.490507141457721</v>
       </c>
       <c r="AT81">
-        <v>0.4294965484256974</v>
+        <v>0.4626847564088891</v>
       </c>
       <c r="AU81">
-        <v>0.4773485405703435</v>
+        <v>0.4518052795255557</v>
       </c>
       <c r="AV81">
-        <v>0.4372825311280055</v>
+        <v>0.4100628655397876</v>
       </c>
       <c r="AW81">
-        <v>0.4610495844096151</v>
+        <v>0.4617724923767706</v>
       </c>
       <c r="AX81">
-        <v>0.6878071214384534</v>
+        <v>0.4622266039459558</v>
       </c>
       <c r="AY81">
         <v>-0.1750403534197602</v>
@@ -10321,38 +10297,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.5706928414841969</v>
-      </c>
       <c r="AP82">
-        <v>0.584334952425811</v>
+        <v>0.5821943965248658</v>
       </c>
       <c r="AQ82">
-        <v>0.5364986759003566</v>
+        <v>0.5792792394888214</v>
       </c>
       <c r="AR82">
-        <v>0.5199191937810956</v>
+        <v>0.5283684588159622</v>
       </c>
       <c r="AS82">
-        <v>0.4673102506141164</v>
+        <v>0.4918751801764536</v>
       </c>
       <c r="AT82">
-        <v>0.4352473274068833</v>
+        <v>0.4573851177556714</v>
       </c>
       <c r="AU82">
-        <v>0.4700862407577195</v>
+        <v>0.436945972056526</v>
       </c>
       <c r="AV82">
-        <v>0.3679406871975213</v>
+        <v>0.3900012764941866</v>
       </c>
       <c r="AW82">
-        <v>0.5239542269384507</v>
+        <v>0.5097986554508078</v>
       </c>
       <c r="AX82">
-        <v>0.4735418205233908</v>
+        <v>0.4548942001656482</v>
       </c>
       <c r="AY82">
-        <v>0.5782185388409715</v>
+        <v>0.4673571393050285</v>
       </c>
       <c r="AZ82">
         <v>2.014657057377804</v>
@@ -10365,38 +10338,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>0.5843385989103622</v>
-      </c>
       <c r="AQ83">
-        <v>0.5364886267205675</v>
+        <v>0.5792809575378306</v>
       </c>
       <c r="AR83">
-        <v>0.5203324242959648</v>
+        <v>0.5285010691784773</v>
       </c>
       <c r="AS83">
-        <v>0.4662981127802087</v>
+        <v>0.4933694478324769</v>
       </c>
       <c r="AT83">
-        <v>0.4334240204647395</v>
+        <v>0.4560084002665024</v>
       </c>
       <c r="AU83">
-        <v>0.4635117998815503</v>
+        <v>0.4371040847047495</v>
       </c>
       <c r="AV83">
-        <v>0.4245193385500736</v>
+        <v>0.4427567935410086</v>
       </c>
       <c r="AW83">
-        <v>0.4731075881897036</v>
+        <v>0.4757177710044809</v>
       </c>
       <c r="AX83">
-        <v>0.4624817628297468</v>
+        <v>0.4824633500640698</v>
       </c>
       <c r="AY83">
-        <v>0.5939273197975563</v>
+        <v>0.5974185794440675</v>
       </c>
       <c r="AZ83">
-        <v>0.5490590963348296</v>
+        <v>0.521747268978957</v>
       </c>
       <c r="BA83">
         <v>1.176666004305858</v>
@@ -10406,253 +10376,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>0.5365053342861617</v>
-      </c>
       <c r="AR84">
-        <v>0.5203741773471</v>
+        <v>0.5284564850778689</v>
       </c>
       <c r="AS84">
-        <v>0.4666413003832527</v>
+        <v>0.4929925998090852</v>
       </c>
       <c r="AT84">
-        <v>0.4324300653058489</v>
+        <v>0.4572080642012502</v>
       </c>
       <c r="AU84">
-        <v>0.4651357074495467</v>
+        <v>0.4401846159977406</v>
       </c>
       <c r="AV84">
-        <v>0.4354342826399729</v>
+        <v>0.4428993771544902</v>
       </c>
       <c r="AW84">
-        <v>0.4619460593422527</v>
+        <v>0.4671164044096549</v>
       </c>
       <c r="AX84">
-        <v>0.500449752907863</v>
+        <v>0.4832815531417775</v>
       </c>
       <c r="AY84">
-        <v>0.4571472211856762</v>
+        <v>0.4805718274830428</v>
       </c>
       <c r="AZ84">
-        <v>0.2303189462372359</v>
+        <v>0.2392899807433862</v>
       </c>
       <c r="BA84">
-        <v>0.7477535645244302</v>
+        <v>0.4786068994974095</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>0.5203106286909034</v>
-      </c>
       <c r="AS85">
-        <v>0.4668205002811762</v>
+        <v>0.4927893970447796</v>
       </c>
       <c r="AT85">
-        <v>0.4328950454140505</v>
+        <v>0.4574067270768465</v>
       </c>
       <c r="AU85">
-        <v>0.4662307848347939</v>
+        <v>0.4398535557494234</v>
       </c>
       <c r="AV85">
-        <v>0.4243999023239172</v>
+        <v>0.4337413046875289</v>
       </c>
       <c r="AW85">
-        <v>0.4720150692663649</v>
+        <v>0.4738622966278903</v>
       </c>
       <c r="AX85">
-        <v>0.5019876108152618</v>
+        <v>0.4782139109694766</v>
       </c>
       <c r="AY85">
-        <v>0.4556355965032754</v>
+        <v>0.4589893522788546</v>
       </c>
       <c r="AZ85">
-        <v>0.5113634867282812</v>
+        <v>0.504889635989249</v>
       </c>
       <c r="BA85">
-        <v>0.3726345097978806</v>
+        <v>0.3618090298618688</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.466728709238184</v>
-      </c>
       <c r="AT86">
-        <v>0.4330525563826997</v>
+        <v>0.4571433592454615</v>
       </c>
       <c r="AU86">
-        <v>0.4658862309987671</v>
+        <v>0.4392437870008598</v>
       </c>
       <c r="AV86">
-        <v>0.4227611744083599</v>
+        <v>0.4342957879116959</v>
       </c>
       <c r="AW86">
-        <v>0.4739745473709441</v>
+        <v>0.4753902052442124</v>
       </c>
       <c r="AX86">
-        <v>0.4952642720465827</v>
+        <v>0.4781605630438409</v>
       </c>
       <c r="AY86">
-        <v>0.4804596221191083</v>
+        <v>0.4802127425217553</v>
       </c>
       <c r="AZ86">
-        <v>0.5652109544725233</v>
+        <v>0.5471248333642262</v>
       </c>
       <c r="BA86">
-        <v>0.4593708988960703</v>
+        <v>0.5026027429331428</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.4329431244386985</v>
-      </c>
       <c r="AU87">
-        <v>0.465707495022336</v>
+        <v>0.4393717714894</v>
       </c>
       <c r="AV87">
-        <v>0.4248949083763313</v>
+        <v>0.4358489455260492</v>
       </c>
       <c r="AW87">
-        <v>0.4719856356582393</v>
+        <v>0.4740583586916181</v>
       </c>
       <c r="AX87">
-        <v>0.4950662508377438</v>
+        <v>0.4790902254035526</v>
       </c>
       <c r="AY87">
-        <v>0.4804910346402671</v>
+        <v>0.4837675810541086</v>
       </c>
       <c r="AZ87">
-        <v>0.5114686069309675</v>
+        <v>0.5000741036395311</v>
       </c>
       <c r="BA87">
-        <v>0.5333142867375038</v>
+        <v>0.5250847705696781</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.4657779469794498</v>
-      </c>
       <c r="AV88">
-        <v>0.4251231509205445</v>
+        <v>0.4356545541567783</v>
       </c>
       <c r="AW88">
-        <v>0.4716460688294918</v>
+        <v>0.4737895629725629</v>
       </c>
       <c r="AX88">
-        <v>0.4962560002529853</v>
+        <v>0.479082282313702</v>
       </c>
       <c r="AY88">
-        <v>0.4759881332637942</v>
+        <v>0.479917975998265</v>
       </c>
       <c r="AZ88">
-        <v>0.5025017373945192</v>
+        <v>0.4939430962338933</v>
       </c>
       <c r="BA88">
-        <v>0.5157829450925366</v>
+        <v>0.4966948599723511</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.4247138530699498</v>
-      </c>
       <c r="AW89">
-        <v>0.4720379833361201</v>
+        <v>0.474051866891629</v>
       </c>
       <c r="AX89">
-        <v>0.4962779503228971</v>
+        <v>0.4789120730544597</v>
       </c>
       <c r="AY89">
-        <v>0.4760264717982157</v>
+        <v>0.479337588395623</v>
       </c>
       <c r="AZ89">
-        <v>0.5127509273580355</v>
+        <v>0.502244146414341</v>
       </c>
       <c r="BA89">
-        <v>0.501209243027679</v>
+        <v>0.4923760151065905</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>0.4720958818678644</v>
-      </c>
       <c r="AX90">
-        <v>0.4960675578466395</v>
+        <v>0.4789167727656804</v>
       </c>
       <c r="AY90">
-        <v>0.476842835369259</v>
+        <v>0.4800349158519693</v>
       </c>
       <c r="AZ90">
-        <v>0.5142171342810962</v>
+        <v>0.5030971850237543</v>
       </c>
       <c r="BA90">
-        <v>0.5047509981369581</v>
+        <v>0.4980991720020077</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.4960659844399197</v>
-      </c>
       <c r="AY91">
-        <v>0.47682789787388</v>
+        <v>0.4801286768652506</v>
       </c>
       <c r="AZ91">
-        <v>0.5122675769790315</v>
+        <v>0.5016383948619065</v>
       </c>
       <c r="BA91">
-        <v>0.5076229693824915</v>
+        <v>0.4989270244918426</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>0.4766799715225381</v>
-      </c>
       <c r="AZ92">
-        <v>0.5120335140690604</v>
+        <v>0.5015273408873235</v>
       </c>
       <c r="BA92">
-        <v>0.5069077827547546</v>
+        <v>0.4977735732380668</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>0.5124034197210522</v>
-      </c>
       <c r="BA93">
-        <v>0.5063418963538908</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.5064862491373726</v>
+        <v>0.4976152656954021</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_OPA_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_OPA_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="BA2">
         <v>2.672233110627005</v>
       </c>
+      <c r="BB2">
+        <v>2.672233110627005</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="BA3">
         <v>-0.2486584437591262</v>
       </c>
+      <c r="BB3">
+        <v>-0.2486584437591262</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1003,8 +1012,11 @@
       <c r="BA4">
         <v>2.48444986756347</v>
       </c>
+      <c r="BB4">
+        <v>2.48444986756347</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1158,8 +1170,11 @@
       <c r="BA5">
         <v>1.924160321525846</v>
       </c>
+      <c r="BB5">
+        <v>1.924160321525846</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1310,8 +1325,11 @@
       <c r="BA6">
         <v>1.36313906046999</v>
       </c>
+      <c r="BB6">
+        <v>1.36313906046999</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1462,8 +1480,11 @@
       <c r="BA7">
         <v>-4.856442119446953</v>
       </c>
+      <c r="BB7">
+        <v>-4.856442119446953</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1611,8 +1632,11 @@
       <c r="BA8">
         <v>1.575066711296429</v>
       </c>
+      <c r="BB8">
+        <v>1.575066711296429</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1760,8 +1784,11 @@
       <c r="BA9">
         <v>1.814138146527952</v>
       </c>
+      <c r="BB9">
+        <v>1.814138146527952</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1906,8 +1933,11 @@
       <c r="BA10">
         <v>0.4238544839342779</v>
       </c>
+      <c r="BB10">
+        <v>0.4238544839342779</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2052,8 +2082,11 @@
       <c r="BA11">
         <v>-0.1584284749490763</v>
       </c>
+      <c r="BB11">
+        <v>-0.1584284749490763</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2198,8 +2231,11 @@
       <c r="BA12">
         <v>0.4882046181590169</v>
       </c>
+      <c r="BB12">
+        <v>0.4882046181590169</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2344,8 +2380,11 @@
       <c r="BA13">
         <v>1.53878081519332</v>
       </c>
+      <c r="BB13">
+        <v>1.53878081519332</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2490,8 +2529,11 @@
       <c r="BA14">
         <v>0.8692906535860487</v>
       </c>
+      <c r="BB14">
+        <v>0.8692906535860487</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2636,8 +2678,11 @@
       <c r="BA15">
         <v>3.11595497587993</v>
       </c>
+      <c r="BB15">
+        <v>3.11595497587993</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2782,8 +2827,11 @@
       <c r="BA16">
         <v>0.3906876693375665</v>
       </c>
+      <c r="BB16">
+        <v>0.3906876693375665</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -2928,8 +2976,11 @@
       <c r="BA17">
         <v>1.221836833579857</v>
       </c>
+      <c r="BB17">
+        <v>1.221836833579857</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3074,8 +3125,11 @@
       <c r="BA18">
         <v>1.653194230429179</v>
       </c>
+      <c r="BB18">
+        <v>1.653194230429179</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3220,8 +3274,11 @@
       <c r="BA19">
         <v>-1.198649426118308</v>
       </c>
+      <c r="BB19">
+        <v>-1.198649426118308</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3366,8 +3423,11 @@
       <c r="BA20">
         <v>0.7741673943688596</v>
       </c>
+      <c r="BB20">
+        <v>0.7741673943688596</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3512,8 +3572,11 @@
       <c r="BA21">
         <v>0.8244429407371285</v>
       </c>
+      <c r="BB21">
+        <v>0.8244429407371285</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3655,8 +3718,11 @@
       <c r="BA22">
         <v>-0.3344927361763723</v>
       </c>
+      <c r="BB22">
+        <v>-0.3344927361763723</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3798,8 +3864,11 @@
       <c r="BA23">
         <v>0.7295104243506501</v>
       </c>
+      <c r="BB23">
+        <v>0.7295104243506501</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -3938,8 +4007,11 @@
       <c r="BA24">
         <v>0.03704431742310987</v>
       </c>
+      <c r="BB24">
+        <v>0.03704431742310987</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4078,8 +4150,11 @@
       <c r="BA25">
         <v>0.2220551683158618</v>
       </c>
+      <c r="BB25">
+        <v>0.2220551683158618</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4215,8 +4290,11 @@
       <c r="BA26">
         <v>0.1661617031019347</v>
       </c>
+      <c r="BB26">
+        <v>0.1661617031019347</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4352,8 +4430,11 @@
       <c r="BA27">
         <v>1.924586088852507</v>
       </c>
+      <c r="BB27">
+        <v>1.924586088852507</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4486,8 +4567,11 @@
       <c r="BA28">
         <v>0.5703441042800677</v>
       </c>
+      <c r="BB28">
+        <v>0.5703441042800677</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4620,8 +4704,11 @@
       <c r="BA29">
         <v>0.5671096279522487</v>
       </c>
+      <c r="BB29">
+        <v>0.5671096279522487</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4751,8 +4838,11 @@
       <c r="BA30">
         <v>0.6731221874372437</v>
       </c>
+      <c r="BB30">
+        <v>0.6731221874372437</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -4882,8 +4972,11 @@
       <c r="BA31">
         <v>0.8295169162459786</v>
       </c>
+      <c r="BB31">
+        <v>0.8295169162459786</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5010,8 +5103,11 @@
       <c r="BA32">
         <v>0.363674885967896</v>
       </c>
+      <c r="BB32">
+        <v>0.363674885967896</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5138,8 +5234,11 @@
       <c r="BA33">
         <v>0.6363538952886927</v>
       </c>
+      <c r="BB33">
+        <v>0.6363538952886927</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5263,8 +5362,11 @@
       <c r="BA34">
         <v>0.4303070273019074</v>
       </c>
+      <c r="BB34">
+        <v>0.4303070273019074</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5388,8 +5490,11 @@
       <c r="BA35">
         <v>0.907245662456674</v>
       </c>
+      <c r="BB35">
+        <v>0.907245662456674</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5510,8 +5615,11 @@
       <c r="BA36">
         <v>0.7278878628511336</v>
       </c>
+      <c r="BB36">
+        <v>0.7278878628511336</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5632,8 +5740,11 @@
       <c r="BA37">
         <v>0.5936080878907575</v>
       </c>
+      <c r="BB37">
+        <v>0.5936080878907575</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5751,8 +5862,11 @@
       <c r="BA38">
         <v>0.3249989166702818</v>
       </c>
+      <c r="BB38">
+        <v>0.3249989166702818</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -5870,8 +5984,11 @@
       <c r="BA39">
         <v>2.043550613228959</v>
       </c>
+      <c r="BB39">
+        <v>2.043550613228959</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -5986,8 +6103,11 @@
       <c r="BA40">
         <v>0.867287375484608</v>
       </c>
+      <c r="BB40">
+        <v>0.867287375484608</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6102,8 +6222,11 @@
       <c r="BA41">
         <v>0.6331942894404392</v>
       </c>
+      <c r="BB41">
+        <v>0.6331942894404392</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6215,8 +6338,11 @@
       <c r="BA42">
         <v>-0.05439614307451279</v>
       </c>
+      <c r="BB42">
+        <v>-0.05439614307451279</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6328,8 +6454,11 @@
       <c r="BA43">
         <v>0.1739459843577862</v>
       </c>
+      <c r="BB43">
+        <v>0.1739459843577862</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6438,8 +6567,11 @@
       <c r="BA44">
         <v>1.255538557350434</v>
       </c>
+      <c r="BB44">
+        <v>1.255538557350434</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6548,8 +6680,11 @@
       <c r="BA45">
         <v>1.090483027535811</v>
       </c>
+      <c r="BB45">
+        <v>1.090483027535811</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6655,8 +6790,11 @@
       <c r="BA46">
         <v>1.226659036647675</v>
       </c>
+      <c r="BB46">
+        <v>1.226659036647675</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6762,8 +6900,11 @@
       <c r="BA47">
         <v>-0.5</v>
       </c>
+      <c r="BB47">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -6866,8 +7007,11 @@
       <c r="BA48">
         <v>0.9</v>
       </c>
+      <c r="BB48">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -6970,8 +7114,11 @@
       <c r="BA49">
         <v>1</v>
       </c>
+      <c r="BB49">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7071,8 +7218,11 @@
       <c r="BA50">
         <v>1.1</v>
       </c>
+      <c r="BB50">
+        <v>1.1</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7172,8 +7322,11 @@
       <c r="BA51">
         <v>-2.477834671711193</v>
       </c>
+      <c r="BB51">
+        <v>-2.477834671711193</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7270,8 +7423,11 @@
       <c r="BA52">
         <v>0.2428240279789122</v>
       </c>
+      <c r="BB52">
+        <v>0.2428240279789122</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7365,8 +7521,11 @@
       <c r="BA53">
         <v>0.8650544612728055</v>
       </c>
+      <c r="BB53">
+        <v>0.8650544612728055</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7457,8 +7616,11 @@
       <c r="BA54">
         <v>0.05143518179183104</v>
       </c>
+      <c r="BB54">
+        <v>0.05143518179183104</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7546,8 +7708,11 @@
       <c r="BA55">
         <v>-2.588552528306963</v>
       </c>
+      <c r="BB55">
+        <v>-2.588552528306963</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7632,8 +7797,11 @@
       <c r="BA56">
         <v>1.067142397791443</v>
       </c>
+      <c r="BB56">
+        <v>1.067142397791443</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7715,8 +7883,11 @@
       <c r="BA57">
         <v>0.9403228036019016</v>
       </c>
+      <c r="BB57">
+        <v>0.9403228036019016</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7795,8 +7966,11 @@
       <c r="BA58">
         <v>1.348411706012428</v>
       </c>
+      <c r="BB58">
+        <v>1.348411706012428</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -7872,8 +8046,11 @@
       <c r="BA59">
         <v>-0.1190215178375666</v>
       </c>
+      <c r="BB59">
+        <v>-0.1190215178375666</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -7946,8 +8123,11 @@
       <c r="BA60">
         <v>0.7996487817115536</v>
       </c>
+      <c r="BB60">
+        <v>0.7996487817115536</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8017,8 +8197,11 @@
       <c r="BA61">
         <v>1.039074166251879</v>
       </c>
+      <c r="BB61">
+        <v>1.039074166251879</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8085,8 +8268,11 @@
       <c r="BA62">
         <v>0.6958556561364588</v>
       </c>
+      <c r="BB62">
+        <v>0.6958556561364588</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8150,8 +8336,11 @@
       <c r="BA63">
         <v>-1.636815679601384</v>
       </c>
+      <c r="BB63">
+        <v>-1.636815679601384</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8212,8 +8401,11 @@
       <c r="BA64">
         <v>-0.04357278727286484</v>
       </c>
+      <c r="BB64">
+        <v>-0.04357278727286484</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8271,8 +8463,11 @@
       <c r="BA65">
         <v>0.3050453114869214</v>
       </c>
+      <c r="BB65">
+        <v>0.3050453114869214</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8327,8 +8522,11 @@
       <c r="BA66">
         <v>0.7386451510207621</v>
       </c>
+      <c r="BB66">
+        <v>0.7386451510207621</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8380,8 +8578,11 @@
       <c r="BA67">
         <v>1.021259612058628</v>
       </c>
+      <c r="BB67">
+        <v>1.021259612058628</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8430,8 +8631,11 @@
       <c r="BA68">
         <v>0.5487159577757694</v>
       </c>
+      <c r="BB68">
+        <v>0.5487159577757694</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8477,8 +8681,11 @@
       <c r="BA69">
         <v>0.6800497182067176</v>
       </c>
+      <c r="BB69">
+        <v>0.6800497182067176</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8521,8 +8728,11 @@
       <c r="BA70">
         <v>0.1667761162031525</v>
       </c>
+      <c r="BB70">
+        <v>0.1667761162031525</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8562,8 +8772,11 @@
       <c r="BA71">
         <v>0.5709980498538272</v>
       </c>
+      <c r="BB71">
+        <v>0.5709980498538272</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8600,8 +8813,11 @@
       <c r="BA72">
         <v>1.176666004305858</v>
       </c>
+      <c r="BB72">
+        <v>1.176666004305858</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8635,8 +8851,11 @@
       <c r="BA73">
         <v>0.4786068994974095</v>
       </c>
+      <c r="BB73">
+        <v>0.8783323788356512</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8667,8 +8886,11 @@
       <c r="BA74">
         <v>0.3618090298618688</v>
       </c>
+      <c r="BB74">
+        <v>0.375938928755442</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8696,8 +8918,11 @@
       <c r="BA75">
         <v>0.5026027429331428</v>
       </c>
+      <c r="BB75">
+        <v>0.4360287204413526</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8722,8 +8947,11 @@
       <c r="BA76">
         <v>0.5250847705696781</v>
       </c>
+      <c r="BB76">
+        <v>0.5352888176392425</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8745,8 +8973,11 @@
       <c r="BA77">
         <v>0.4966948599723511</v>
       </c>
+      <c r="BB77">
+        <v>0.5231897612750926</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8765,8 +8996,11 @@
       <c r="BA78">
         <v>0.4923760151065905</v>
       </c>
+      <c r="BB78">
+        <v>0.5035789880531426</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8782,8 +9016,11 @@
       <c r="BA79">
         <v>0.4980991720020077</v>
       </c>
+      <c r="BB79">
+        <v>0.5060143287724851</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8796,8 +9033,11 @@
       <c r="BA80">
         <v>0.4989270244918426</v>
       </c>
+      <c r="BB80">
+        <v>0.5098887247466805</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8807,13 +9047,27 @@
       <c r="BA81">
         <v>0.4977735732380668</v>
       </c>
+      <c r="BB81">
+        <v>0.5093986862017086</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>0.4976152656954021</v>
+      </c>
+      <c r="BB82">
+        <v>0.5086332614023801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.5087318365954954</v>
       </c>
     </row>
   </sheetData>
